--- a/data/hotels_by_city/Dallas/Dallas_shard_101.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
   <si>
     <t>STR#</t>
   </si>
@@ -186,6 +186,9 @@
     <t>Their rooms are clean and spacious and the property is maintained well. The desk clerk gave me an extra pillow and bed sheet at 2 am when I requested, and they are very courteous.  I recommend this place to everyone. More</t>
   </si>
   <si>
+    <t>Mmardis2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r572984857-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t>Check in was so pleasant with the gentleman (forgot to get his name) but he was so endearing and funny. The room is a small suite and clean. The bed is amazing, the TV is HD and a nice size and clear. Downside, maybe the AC (is completely adequate) but it's a unit that will not turn off when reaches the appropriate temp. But I kind of like the sound (quite noise). I would very recommend this hotel and will stay here again next year when I'm here on biz. And I saw someone with a dog, so I guess it's pet friendly tooMore</t>
   </si>
   <si>
+    <t>Bret H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r564402432-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>This place is overpriced for what you get. Don't let the pics online fool you. Our room smelled musty and had a leaky ac unit, the floor was wet. There are a lot of hotels in this area for around the same price. I would stay somewhere else.More</t>
   </si>
   <si>
+    <t>KevuPat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r515308394-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -267,6 +276,9 @@
     <t>Great Place to Stay, Very Nice Staff, Excellent Services, Very Neat and Clean Rooms , Affordable Price, Awsome Experience, Delicious continental Breakfast, Suitable place for Family and Business visits and I would love to visit again.More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r504886127-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -291,6 +303,9 @@
     <t>Very nice room.Spotless and clean.Easy checkin.It was close to shopping and restaurants.Good rate.Right on major freeway so easy on an off.Breakfast was available.There was a very nice pool available for swimming.Also there was an exercise room.More</t>
   </si>
   <si>
+    <t>Doug K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r447253645-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -312,6 +327,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r446885141-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t xml:space="preserve">We stayed here Christmas Day 2016 traveling to see family from Houston to Oklahoma.   Booked reservations over phone.  Charged more once we got there regardless of reservation.   Breakfast standard; Camryn was nice.  Not clean bathroom or bedroom, see pictures.  You hear traffic from rooms.  Beds were comfy.  I will book somewhere else next time.  </t>
   </si>
   <si>
+    <t>MangoRita80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r445984767-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t xml:space="preserve">We met for family reunion. We all arrived well before check in after driving 5 hours. They had rooms together for us and we were able to get in early and start our festivities. Rooms were nice. Lots of seating. Large bathrooms. Beds and bedding were very nice. Cleaning staff checked with us frequently to make sure everything was good. Only improvement would be towel rack in bathroom. Breakfast was great. Hot food, waffles, cereal, juice, and lots of light options. Will definitely return. </t>
   </si>
   <si>
+    <t>Chas S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r445925938-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>The folks are very helpful, and courteous. It is near the center of McKinney and a number of restaurants, a shopping center,  Walmart, several banks, Central Expressway, Home Depot, Lowes, Hutchens BarBQue (the best BBQ in Texas</t>
   </si>
   <si>
+    <t>Resque</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r444876526-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>Very spacious with dining room, living room, separate dining room, bedroom and two person jacuzzi tub.  Friendly staff.  Good breakfast.  Location is a bit north of restaurants.  Freeway noise was not too bad.</t>
   </si>
   <si>
+    <t>Tim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r440651604-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Bryan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r438047514-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>We were here for one Saturday night, the room cost was $130, which was the lower end of the market for hotels in the area that weekend.  While the staff were all very helpful, smiling, and friendly, the room felt damp and had a musty smell.  Bed was comfortable, place overall was clean.  For breakfast, skip the 'eggs' and sausage, and opt for the fresh waffle.  That tends to go for most of these included breakfasts, but in this case is especially important.  The meat and egg were lukewarm and just seemed awful.  We have stayed at the Hampton just north and would pick that one over this one, but it did the job for a quick overnight stay.  Also, it was $50 per night less for that weekend.More</t>
   </si>
   <si>
+    <t>okiegigi2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r437534962-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>This is a relatively new hotel. We checked in late on Saturday night, and every thing was ready for us. We would have liked to have breakfast but it didn't open until 7:00. This was too late for us as our baseball  tournament started practice at that time. This was the only negative we had for the hotel. The location is easy to find. The room was clean and wonderfully comfortable.  We will stay here again!</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r397379747-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>CheraKay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r394326203-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>The hotel was clean.  The room was spacious for my husband and 2 adult children.  The rate was good for the type of hotel.  The breakfast provided was good and the ladies who worked it were very sweet and helpful.I would stay here again.</t>
   </si>
   <si>
+    <t>Kabacho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r380456175-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -477,6 +522,9 @@
     <t>I stayed an extra day and night in Texas to visit a very good friend of mine who lives near McKinney. I stayed in a King Suite, which was very nice and comfortable. I love the sitting area! The room was very clean and it was also quiet. The bed was quite comfortable and I was able to get a full night's sleep. The staff was friendly and helpful. There were several good options at breakfast including some hot dishes. Since a friend told me about Comfort Inns a few years ago, that is where I always stay now. I am able to get good value for my money, a comfortable and safe place to stay, courteous and helpful staff and a good breakfast. That's a win-win for me!More</t>
   </si>
   <si>
+    <t>Phillip S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r374850400-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>Overall - a good value for the rate I got.  The hotel was generally clean, but the hallway carpets could use a good cleaning as they were pretty dirty, especially on the 1st floor.  The room was good size and the bed was comfortable.  Housekeeping was a bit spotty.  We stayed for 3 days and the first day, a half empty coffee cup was left on the coffee table in the sitting area, and a used towel was left on the couch.  Housekeeping the second day was better, but the last day we were only given one bath towel for two people.The hotel was generally quiet at night, but they were doing some repairs to one of the rooms next to us midday that was pretty noisy.  Repairs have to be done sometime so not much you can do about that.  AC in the room worked well and was a bit loud, but we tend to like that as it drowns out other noises in the hallway.Kudos to the lady that ran the breakfast room.  She was friendly and helpful to everyone and did a good job making sure things were stocked.  My only suggestion would be that the hotel consider going back to thermal coffee dispensers that provide real brewed coffee.  The automatic coffee dispensers that this hotel had, (and unfortunately most seem to be going to) just don't provide a very good cup of coffee.More</t>
   </si>
   <si>
+    <t>MichelleHardman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r373925647-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -513,6 +564,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>texaspartyofsix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r373444068-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -531,6 +585,9 @@
     <t>Assistant manager Oscar is very rude and unprofessional.  They charged us twice for the room plus took another credit card for incidentals.  I was told the general Manager, Raj, was unavailable to talk to for about a week. I am still working to get the charged corrected.  Room wasn't the cleanest.  Sheets might not have been clean as they were yellow and smelled like dirty head.  The water smelled like wet dog and there was very little water pressure.  There were only three towels in the room.  The sofa bed was twin size and there was no pillow for it.  No one greeted us when we were checking in or walking out.  One person was getting a room change when I checked in.  I should have left then... The cream cheese and yogurt had a funny texture at breakfast.  It made me think food might not be stored properly.  Eat at your own risk.  The parking lot was scary.  There were groups of men hanging around in the parking lot when we checked in as well as when we came back from eating at the Olive Garden close by. I felt scared and took everything from my car and rushed in. Not the best part of town.  Rude and scary management that don't care but run a cheap hotel. I would not stay here again or recommend it to anyone.  We were here for a sports event.  Next time I...Assistant manager Oscar is very rude and unprofessional.  They charged us twice for the room plus took another credit card for incidentals.  I was told the general Manager, Raj, was unavailable to talk to for about a week. I am still working to get the charged corrected.  Room wasn't the cleanest.  Sheets might not have been clean as they were yellow and smelled like dirty head.  The water smelled like wet dog and there was very little water pressure.  There were only three towels in the room.  The sofa bed was twin size and there was no pillow for it.  No one greeted us when we were checking in or walking out.  One person was getting a room change when I checked in.  I should have left then... The cream cheese and yogurt had a funny texture at breakfast.  It made me think food might not be stored properly.  Eat at your own risk.  The parking lot was scary.  There were groups of men hanging around in the parking lot when we checked in as well as when we came back from eating at the Olive Garden close by. I felt scared and took everything from my car and rushed in. Not the best part of town.  Rude and scary management that don't care but run a cheap hotel. I would not stay here again or recommend it to anyone.  We were here for a sports event.  Next time I will drive a little farther down the road to stay at a nicer place and feel safe.More</t>
   </si>
   <si>
+    <t>MILK85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r371617022-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>The hotel was great!  The night clerk recommended a great local BBQ restaurant.  The woman in charge of the complimentary breakfast both mornings we were there was sweet and attentive.  The only complaint was that our room didn't get made up after we left on Saturday, but likely because we had the do not disturb sign on until almost 1pm.  Can't fault the hotel.</t>
   </si>
   <si>
+    <t>Staci P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r352615125-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -600,6 +660,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Chuck S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r347005740-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>Place was under construction while I was there.  Funny thing, the bathroom didn't have a toilet paper spindle.  My daughter stayed in a different room and they didn't have one either.  Not a bad place, but certainly not stellar.</t>
   </si>
   <si>
+    <t>RoadQueen2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r341943502-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -633,6 +699,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Norma S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r341027340-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -651,6 +720,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Amanda R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r340222490-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -666,6 +738,9 @@
     <t>For the price, good - clean - quiet - roomy hotel room.  Only a few minutes drive from the best bbq place north of Dallas.  Breakfast was okay.  No pool. Front desk staff was friendly and helpful.  frontage road and exit were a little confusing at first.</t>
   </si>
   <si>
+    <t>mtngoat2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r336099290-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -684,6 +759,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Bill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r332651347-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -702,6 +780,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>BobTayne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r326762046-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -717,6 +798,9 @@
     <t>A very nice hotel and very convenient. It was clean and friendly. You could tell by looking around the edges that it was aging, i would stay there again. One think about Choice hotels that's bothers me is that i am seeing more and more of them serving coffee from a machine instead of a pot. Some times it's kind of weak...I wish they would go back to brewing coffee.</t>
   </si>
   <si>
+    <t>TomCaine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r322641375-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -732,6 +816,9 @@
     <t>Nice, quiet, clean room in great proximity to downtown McKinney. Attentive, helpful staff. I would definately stay here again and/or would refer my friends or family to do the same. Great bang for the buck, no dissaointments whatsoever.</t>
   </si>
   <si>
+    <t>PunkyBo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r320270402-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -750,6 +837,9 @@
     <t>I booked this hotel based on the reviews I saw online. I honestly have no idea how these reviews could have been written by actual hotel guests. In the first room we checked into, the bathroom did not look clean. Toilet paper shreds and hairs were on the toilet. There were several hairs in the bathroom sink. The counter by the TV had a sticky substance on it. I was disgusted. The front desk clerk apologized and offered us a second room, which we accepted. The second room had toothpaste in the sink. It was late at night, and we were traveling with two young children, so we just decided to deal with it. The next morning I found a cricket in the bathroom. At breakfast, I opened a packet of instant oatmeal, and found a massive, rock-hard lump in the bottom of the packet (I'm not sure if the packet was just very old or had gotten wet). The hotel manager apologized, and said the most he could do was give us a 10% refund. I do not recommend this hotel and honestly cannot fathom that the current reviews were written by actual customers. The hotel is old, carpet is dingy and coming apart in the rooms (both that we were in), there is black mold growing around the sinks...More</t>
   </si>
   <si>
+    <t>Gdotte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r318323287-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -765,6 +855,9 @@
     <t>Went to McKinney TX to visit family and go to the Texas State Fair . I called the propertyto see if an early check in was available. They gladly accommodated us. The property was clean and quiet . The bed was very comfortable . The breakfast was good as well.We plan on visiting family again . and will definitively stay here.</t>
   </si>
   <si>
+    <t>SamDP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r316951232-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -783,6 +876,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Mommaspecial</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r314913239-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -798,6 +894,9 @@
     <t xml:space="preserve">Really enjoyed our 1 night stay here. The room was nice and large. The king size bed was very comfortable. The hotel was in a nice location and within walking distance of several eating places. The manger that booked our room for us was so helpful.  Didn't get to try the breakfast because we had to leave before breakfast was served. </t>
   </si>
   <si>
+    <t>travel_91111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r298112807-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -813,6 +912,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Kristina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r286216366-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -849,6 +951,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>camerabuff57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r264341786-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -870,6 +975,9 @@
     <t>We weren't able to enjoy the luxurious room for long, as we arrived after 10 p.m. and had to leave after breakfast, we slept so well in our quiet King suite. The room layout was spacious and the bed and pillows were so comfortable! I brought my own pillow along, as always, just in case I needed it, but I didn't use it throughout the trip. Everything from the shower to the continental breakfast was great. Only thing I remember being disappointed in was that my waffle was a bit too crispy. Big deal. We headed on our way happy and well-rested. Good thing, too, because we had to get on the Dallas/Ft. Worth freeway after we left. What a nightmare!More</t>
   </si>
   <si>
+    <t>Chad W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r263516967-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -891,6 +999,9 @@
     <t>If you are looking to stay in the DFW area, it is well worth the money and the drive to make your way up to this part of town. Extremely accommodating and friendly staff and a very clean room, that came with a standard mini fridge and a microwave. The beds were comfortable and there was not a lot of noise from the road. The staff also turned me onto one of the best Tex-Mex restaurants I have ever tried in my life.They also have laundry facilities, which is nice if you are staying awhile or have been on the road for a few days. My only complaint was with the shower. Air in the pipes, it definitely woke me up in the morning. Seriously, it sounded like a banshee was going to come out of the shower head. The only other con, was the AC was not the coolest on a hot day, and it was noisy, it would wake us up when it would kick on periodically thoughout the night.The break was not bad the next morning, powdered eggs and turkey sausage and a waffle maker that made them in the shape of Texas.More</t>
   </si>
   <si>
+    <t>MinimalTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r261119505-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1023,9 @@
     <t>This property was very nice with nicely apportioned rooms and other facilities. There is a meeting room on site as well as a smaller conference room adjacent to the business center with several desktop computers and a printer available for guests' use. The room was nicely decorated, had two beds, and a small couch that contained a bed as well. The HVAC controls left a little to be desired as the controls were on the under-window unit and had to be tinkered with the get the right balance of temperature. Having an actual thermostat with a degree reading would have made this a bit easier and potentially more comfortable. The workout facilities were not oversized, but contained several pieces of quality equipment to help guests stay in shape while away from their normal routines and locations. The free breakfast was nice, but it would have been good to see a little variation from day to day. A light buffet style of foods were presented along with the standard staples of bagels and danishes and a juice dispenser. All in all, this was a nice property and was certainly a good choice for the price we paid for several nights.More</t>
   </si>
   <si>
+    <t>Kay W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r254460978-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1041,9 @@
     <t>Hands down the most friendly, accommodating manager we've experienced! Oscar met us at check in, arranged for rooms close together for our group of eight, gave directions and suggestions to local attractions and good places to eat during our 3 day stay and always made time to do this with personality and flair! And he was obviously extremely busy overseeing his staff and a full house! He made us feel like guests in his personal home! Well done, Oscar! Thank you!</t>
   </si>
   <si>
+    <t>J G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r234168815-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1071,9 @@
     <t>I wish I could give this hotel ten stars. Great front desk guys, every time, no matter what help I needed. Spit spot clean room, lobby and breakfast area. Good food and fresh right up until time to close up. Lady in the breakfast area (Veleta) was helpful and friendly. Parking lot is well lit. We felt safe going in and out at all hours of the day and night. Many stores close by from shopping to grocery stores to drug stores, and easily accessible. There is all kind of construction going on and it was still easy to get to and from this hotel. Both of us have issues with our back and we both slept well.  It was a plus to have a microwave and fridge in our room. The hotel was full but based on noise (it was quiet) and parking (there was plenty) and the elevator (it was quick) , you would never know it.More</t>
   </si>
   <si>
+    <t>TerryRandy420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r231965739-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1099,9 @@
   </si>
   <si>
     <t>Stayed here for 5 nights because of one of my palzianos getting married. I would consider my trip to be a good one. The hotel was very nice other than a few cleanliness issues like mold on the shower curtains and a few miscellaneous stains here and there. I stayed in a 2 queen bed room on the 2nd floor and I had a wonderful view of a bank parking lot and a Pizza Hut sign. The manager helped me get a good deal and was very helpful and friendly considering I had to ask him for complementary tooth paste 6 times because I forgot to pack my own. This is a very quiet hotel and I would (and probably will) stay here again.More</t>
+  </si>
+  <si>
+    <t>missgee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r224454397-Comfort_Suites_McKinney-McKinney_Texas.html</t>
@@ -1008,6 +1131,9 @@
 We stay in a Comfort Inn when we visit our parents, and there is no comparison in the two hotels.  This hotel is in a good location and could be a great place to stay if they would put in...We made our reservations based on all of the great reviews for this hotel.  I had to double check the address of the hotel to make sure we had the right location.  The hotel is in need of updating.  When we walked into our room there was a very musty smell.  The front desk attendant gave us a key to another room and when we went into that room, it smelled even worse.  We went back to the first room.  Attendant told us it was probably the air conditioner(which tells me they know it is a problem.)  I really wanted to leave then, but we had been traveling all day with children and we needed to get them to bed.  The room needed a deep cleaning.  the walls needed painting.  The toilet paper holder was broken in the bathroom, so I left the toilet paper off so the maid could fix it.  When I came back, she had put the paper back on the broken holder.  You had to hold the handle on the toilet to make it flush.  The sheets did not fit the beds, and the beds were not made well. The elevator shook on the way down.  We stay in a Comfort Inn when we visit our parents, and there is no comparison in the two hotels.  This hotel is in a good location and could be a great place to stay if they would put in a little more TLC.More</t>
   </si>
   <si>
+    <t>Sandeeu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r224451274-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1146,9 @@
     <t>Spent two nights at this hotel.  It was in a good    location and easy access. The room was clean and comfortable.   Breakfast was good for a hotel. All the people that work at this hotel were friendly and helpful. I would stay there again.</t>
   </si>
   <si>
+    <t>angiinkc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r216721616-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1170,9 @@
     <t>This was a great stay overall.  The hotel is in a great location.  If you haven't been to McKinney, the downtown area is supercool, and relatively close to this hotel.  We just happened upon it when looking at restaurants on trip advisor.  Please be aware though that this hotel was difficult to find because the GPS kept getting confused.  There is also quite a bit of shopping nearby.  The hotel appears to be relatively new and was very clean.  Our room was a great side and even though we were right outside the lobby area, we could not hear anything so that was also very nice.  The breakfast area was also very clean, and there was adequate seating and quite a few choices.  The thing I liked about this hotel was their pool.  I went out to swim in the morning and it had a lot of shade which was very nice since it is so hot there, with the way the buildings were.  It would be great if you were there with your family and are able to swim in the morning.  I do not do well in the bright sun, so that was a nice little perk.  It wasn't a huge pool, but it was nice.  I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>Dan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r212227456-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1200,9 @@
     <t>Everytime I work up in this area I always come here.Rooms are very nice and well takin care of with plenty of room ! All the employees here are excellent and very helpful ,enjoy staying here ! I recommend this location for your stay in McKinney Texas with plenty of places to eat out at .More</t>
   </si>
   <si>
+    <t>Mjaj2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r210715962-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1221,9 @@
     <t>We're staying here for me to have some medical testing in the area. The staff was very kind to upgrade our room to a jacuzzi suite for our stay. The room was pleasantly cold when we walked in and it was clean.  Two TV's is normal but two A/C's isn't. The room has a dinning room table with 4 chairs, microwave, refrigerator and a sink. This is prefect for my medical supplies during this stay. The spacious room gives us a feeling of being at home. Quite comforting when you away from home for medical reasons. Thank you so much for you staff. They have made this stay a pleasure during a non pleasant trip. Thanks  More</t>
   </si>
   <si>
+    <t>DMEJordan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r208605060-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1239,9 @@
     <t xml:space="preserve">Nice room! Great mattress and nice pillow options. Best nights sleep in a very long time. We even enjoyed the free breakfast; a nice variety, something for everyone. The only thing that could have made it better is if the coffee was Folgers, not that what they have is bad. ;) if anyone knows what mattress that was that we slept on we want for home. We will recommend to friends and family and we will stay here again should the need arise. </t>
   </si>
   <si>
+    <t>Marge B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r203971972-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1260,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Lori N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r199668192-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1326,9 @@
     <t>The room was very well dressed. Beds were comfortable. The staff was excellent even with my kids. They went above and beyond to make sure our stay was great. The guy at the front desk made sure that we had everything we needed, the restroom was nice and spacious. I like the fact that their bath towels are actually big enough for more than a toddler.More</t>
   </si>
   <si>
+    <t>DCP2202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r179772936-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1356,9 @@
     <t>My mother and I traveled to McKinney to attend a funeral. We called the hotel for reservations while we were still traveling. The gentleman that answered the phone was very helpful and accommodating. Upon arrival later in the evening, the same gentlemen, K.B., went out of his way to make sure we got checked in ok and settled in without any problems. He gave us a good rate and assisted me in enrolling in the Choice Privileges program. He followed up with phone calls to make sure the room was fine and that we had everything we needed. He was very gracious and helpful. K.B. was on duty when we checked out as well and was equally helpful. The hotel was clean and quiet. We did not utilize any of the on site amenities except for breakfast. There was plenty of choices including waffles, bacon, and eggs. All of the staff we encountered were pleasant and professional. I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>JPK2wx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r169069680-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1383,9 @@
     <t>This is the best hotel I have ever stayed in. The staff is amazing and extremely friendly, the room is very nice with a very spacious bathroom, minifridge, and microwave. Outdoor pool is great for all ages! Fitness room has a TV, multipurpose machine, treadmill, and stationary bike. Breakfast is free and very filling, with a spacious eating space, well-stocked and delicious food and a TV. Also has a business center with fax and printing for free. Awesome hotel!More</t>
   </si>
   <si>
+    <t>Pli876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r166502550-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1413,9 @@
     <t>--Air conditioner loud and NEVER turns off!  Prepared to be very cold or very hot!--Tub is small--The hotel plays a fun game called, "How much furniture can I fit in the smallest space possible?"--The staff looked unkept--Bed not comfortableGo somewhere else!More</t>
   </si>
   <si>
+    <t>1DangerousDiner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r166359719-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1434,9 @@
     <t>July 2, 2013Older, nicely renovated hotel. Nice people.  Very low grade breakfast. All AC units full of mold.  Looked into six different units in six different rooms with a flashlight and saw it with my own eyes....MOLD! and lots of it.  If you are sensitive to mold spores or mold, choose a different hotel.  My wife and I spent 2 nights of a 10 night reservation until we had to leave because the AC unit in our room smelled musty and moldy and no other room was better.  We had other maintenance issues as well but the staff at the hotel quickly, and to their credit, took care of the issues immediately.  Unfortunately, cleaning the AC units is something a professional company needs to do.  It is far beyond the hotels maintenance man's abilities to do what's necessary to properly clean a wall mounted AC unit.     We moved to the (3 year old) Hilton's Homewood Suites in Allen and it was like night and day for about the same price.  The Comfort Suites tries it's best but they really need to have their AC units cleaned.More</t>
   </si>
   <si>
+    <t>Kenneth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r163978007-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1464,9 @@
     <t>We were recommended to stay here by the Lamb and Lion Ministries and it was an excellent place to stay. It was very convenient as we were going back there the next morning to Lamb and Lion. Rooms were very clean and nice and this was our first night of staying in Comfort Inn and was an enjoyable stay as we were there long enough to enjoy the amenities. Breakfast was very good.More</t>
   </si>
   <si>
+    <t>JdubyaMO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r162620545-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1485,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>David K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r158328722-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1506,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Kishan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r156735298-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1527,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>cap10awesome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r154526437-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1545,9 @@
     <t>The hotel was very nice with polite employees. The rooms are spacious and clean. It also offers good breakfast (included in the price) and it is in an affordable price. I would definitely stay again if in the area.</t>
   </si>
   <si>
+    <t>Pam Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r149305823-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1566,9 @@
     <t>We recently Selected the Comfort Suites  in McKinney as our venue for the wedding guests at my daughter's wedding.  It accommodated all of us very well with clean rooms, a good hot breakfast, and a friendly front desk staff. The breakfast room allowed us all to meet in the mornings and get the day started together.  When we had to assemble  wedding programs at the last minute, we got to use the small board room.  The only complaint I heard was about a noisy heater in one of the rooms.  All rooms were fairly  spacious with comfortable beds, a sitting area , microwave, and  a small fridge. The 2 bedroom apartment was nice but it only had one bathroom.  The location is convenient on highway 75 and close to McKinney's historic downtown.  Very good for the block room price and value.More</t>
   </si>
   <si>
+    <t>Chipster58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r146575815-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1587,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>JimTritten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r146088942-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1605,9 @@
     <t xml:space="preserve">We are repeat customers when visiting family nearby.  Been staying here for years.  Good location, nice rooms, very friendly staff.  Complementary breakfast is typical and filling.  Rooms clean and quiet.  Beds comfortable.  We use the exercise room each visit. Treadmill, exercise multipurpose machine, stationary bicycle.  Good parking with access to side entrances. We will be back.  </t>
   </si>
   <si>
+    <t>2cruise7seas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r131886505-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1626,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>AnneKaty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r131162332-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1650,9 @@
     <t>We stayed in a 2 bedroom suite.  The Cons: The room did not have a third TV (only in 1 bedroom) as described-Front desk seemed to not know what I was talking about.  Regarding utensils in the kitchen, there was 1 fork...that's it.  I had to go down to the breakfast area to get plastic utenils.  The kitchen had no paper towels and no dish towels.  The AC was off when we entered and the room was quite warm (cooled down pretty quickly).The Pros: The beds, linens and pillows were really comfortable. The room was very clean and the bathroom was huge. The furniture looked updated and was comfortable.  The hotel was very conveniently located off the highway (so there is highway noise at night).  In general, I thought it was a bit expensive for what it was, and I would not likely stay her again.More</t>
   </si>
   <si>
+    <t>YUMorYUCK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r130883418-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1671,9 @@
     <t>My husband and I stayed two nights at the Comfort Suites in McKinney, Texas. This hotel was very clean and well organized The bathrooms and rooms are updated and extremely clean. The staff were extremely accomodating. We would stay here again.Breakfast was standard continental. Nothing out of the ordinary or exemplary but everything was well stocked and in order.Room: Nice size room with king size bed and sitting area, room has refrigerator, microwave and coffee maker. The bed was ok on the cofort scale - not plush but not hard either. The air conditioning was GREAT. Manager - he was on top of everything. I peronally saw him watering plants. Picking up in the parking lot. checking rooms and cleanliness. WAY TO WORK!!!!!!More</t>
   </si>
   <si>
+    <t>ztrips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r128401357-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1692,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>TheGreatTheo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r116211561-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1713,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Frequentravel-her</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r105667136-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1734,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>JAFLP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r104490276-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1752,9 @@
     <t>Because we usually travel in our RV, I was very hesitant about staying in a hotel. However, I was very, very pleased with this one. The staff was very friendly, the breakfasts plentiful, the hotel clean, housekeeping did a good job on our room. I found the above true throughout our 4 day stay. I understand they are in the process of remodeling the entire hotel with the third floor nearly done.</t>
   </si>
   <si>
+    <t>anemonefish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r83867021-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1564,6 +1768,9 @@
   </si>
   <si>
     <t>My 91 year old mother needed a place to stay for a few days and we chose the Comfort Suites. The staff could not have been more accommodating  and helpful, from front desk to housekeeping to breakfast crew. They have two accessible rooms near the front entrance which, like all their rooms, include fridge and microwave.  Warm appointments. Suggest 2nd floor if you like privacy since windows open on parking. Lots of eateries and shopping nearby, walking distance for much of it. WiFi and a functional little business center, plus meeting space. If you have to be in McKinney, this is a good choice.</t>
+  </si>
+  <si>
+    <t>vwhittaker</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r31306313-Comfort_Suites_McKinney-McKinney_Texas.html</t>
@@ -2147,8 +2354,12 @@
       <c r="A3" t="n">
         <v>41060</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
@@ -2156,7 +2367,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -2165,16 +2376,16 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2191,21 +2402,25 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41060</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
@@ -2213,7 +2428,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2222,22 +2437,22 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
@@ -2258,21 +2473,25 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41060</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -2280,7 +2499,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -2289,25 +2508,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2319,21 +2538,25 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41060</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -2341,7 +2564,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2350,25 +2573,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2386,21 +2609,25 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41060</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>9440</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -2408,7 +2635,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2417,25 +2644,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2453,15 +2680,19 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41060</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -2469,7 +2700,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2478,22 +2709,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
@@ -2510,15 +2741,19 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41060</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125596</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -2526,7 +2761,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2535,22 +2770,22 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -2567,15 +2802,19 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41060</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125597</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -2583,7 +2822,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2592,16 +2831,16 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -2620,15 +2859,19 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41060</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125598</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -2636,7 +2879,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2645,25 +2888,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2683,15 +2926,19 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41060</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -2699,7 +2946,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2708,22 +2955,22 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
@@ -2746,15 +2993,19 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41060</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>19563</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -2762,7 +3013,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2771,22 +3022,22 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
@@ -2807,15 +3058,19 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41060</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125599</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -2823,7 +3078,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2832,22 +3087,22 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
@@ -2868,15 +3123,19 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41060</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -2884,7 +3143,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2893,25 +3152,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2925,15 +3184,19 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41060</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -2941,7 +3204,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2950,22 +3213,22 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
@@ -2982,15 +3245,19 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41060</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125601</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -2998,7 +3265,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -3007,25 +3274,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3039,15 +3306,19 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41060</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>56481</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -3055,7 +3326,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3064,16 +3335,16 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -3092,15 +3363,19 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41060</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125602</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -3108,7 +3383,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3117,25 +3392,25 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3153,15 +3428,19 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41060</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125603</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -3169,7 +3448,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3178,25 +3457,25 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3214,15 +3493,19 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41060</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125604</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -3230,7 +3513,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3239,25 +3522,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3271,7 +3554,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -3287,7 +3570,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3296,22 +3579,22 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
@@ -3332,7 +3615,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3348,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3357,25 +3640,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3395,15 +3678,19 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41060</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125605</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -3411,7 +3698,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3420,25 +3707,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3456,15 +3743,19 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41060</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>19274</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -3472,7 +3763,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3481,22 +3772,22 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
         <v>52</v>
@@ -3517,15 +3808,19 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41060</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125606</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -3533,7 +3828,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3542,22 +3837,22 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
@@ -3578,15 +3873,19 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41060</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125607</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -3594,7 +3893,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3603,25 +3902,25 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3641,15 +3940,19 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41060</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>14315</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -3657,7 +3960,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3666,25 +3969,25 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3698,15 +4001,19 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41060</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125608</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -3714,7 +4021,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3723,25 +4030,25 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3761,15 +4068,19 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41060</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
@@ -3777,7 +4088,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3786,22 +4097,22 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
         <v>52</v>
@@ -3824,15 +4135,19 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41060</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125609</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -3840,7 +4155,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3849,22 +4164,22 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
         <v>52</v>
@@ -3887,15 +4202,19 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41060</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125610</v>
+      </c>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -3903,7 +4222,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3912,25 +4231,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3948,15 +4267,19 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41060</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125611</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -3964,7 +4287,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3973,22 +4296,22 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s">
         <v>52</v>
@@ -4009,15 +4332,19 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41060</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125612</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -4025,7 +4352,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4034,22 +4361,22 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O34" t="s">
         <v>52</v>
@@ -4072,15 +4399,19 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41060</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125613</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -4088,7 +4419,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4097,25 +4428,25 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4129,15 +4460,19 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41060</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125614</v>
+      </c>
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -4145,7 +4480,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4154,25 +4489,25 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4186,15 +4521,19 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41060</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125615</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -4202,7 +4541,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4211,25 +4550,25 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4243,15 +4582,19 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41060</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>23726</v>
+      </c>
+      <c r="C38" t="s">
+        <v>298</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -4259,7 +4602,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4268,22 +4611,22 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
         <v>52</v>
@@ -4306,7 +4649,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
@@ -4322,7 +4665,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4331,22 +4674,22 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
         <v>52</v>
@@ -4367,15 +4710,19 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41060</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125616</v>
+      </c>
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -4383,7 +4730,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4392,25 +4739,25 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4430,15 +4777,19 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41060</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>16013</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -4446,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4455,25 +4806,25 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4491,15 +4842,19 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41060</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125617</v>
+      </c>
+      <c r="C42" t="s">
+        <v>327</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -4507,7 +4862,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4516,22 +4871,22 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s">
         <v>52</v>
@@ -4552,15 +4907,19 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41060</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>25943</v>
+      </c>
+      <c r="C43" t="s">
+        <v>335</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -4568,7 +4927,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4577,25 +4936,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4609,15 +4968,19 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41060</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>2569</v>
+      </c>
+      <c r="C44" t="s">
+        <v>341</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -4625,7 +4988,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4634,22 +4997,22 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="J44" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="O44" t="s">
         <v>52</v>
@@ -4668,21 +5031,25 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="X44" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41060</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125618</v>
+      </c>
+      <c r="C45" t="s">
+        <v>351</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -4690,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4699,25 +5066,25 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4735,21 +5102,25 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="X45" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="Y45" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41060</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125619</v>
+      </c>
+      <c r="C46" t="s">
+        <v>361</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -4757,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4766,22 +5137,22 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s">
         <v>52</v>
@@ -4804,15 +5175,19 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41060</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>101994</v>
+      </c>
+      <c r="C47" t="s">
+        <v>369</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -4820,7 +5195,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4829,25 +5204,25 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="J47" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4861,15 +5236,19 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41060</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125620</v>
+      </c>
+      <c r="C48" t="s">
+        <v>374</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -4877,7 +5256,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4886,25 +5265,25 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -4924,15 +5303,19 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41060</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>4519</v>
+      </c>
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -4940,7 +5323,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4949,25 +5332,25 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="J49" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4989,21 +5372,25 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="X49" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="Y49" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41060</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125621</v>
+      </c>
+      <c r="C50" t="s">
+        <v>392</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -5011,7 +5398,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5020,25 +5407,25 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5052,15 +5439,19 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41060</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125622</v>
+      </c>
+      <c r="C51" t="s">
+        <v>399</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -5068,7 +5459,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5077,25 +5468,25 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5109,15 +5500,19 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41060</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125623</v>
+      </c>
+      <c r="C52" t="s">
+        <v>405</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
@@ -5125,7 +5520,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5134,22 +5529,22 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="J52" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="K52" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="O52" t="s">
         <v>52</v>
@@ -5166,15 +5561,19 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41060</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>35225</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
@@ -5182,7 +5581,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5191,22 +5590,22 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="O53" t="s">
         <v>52</v>
@@ -5233,7 +5632,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54">
@@ -5249,7 +5648,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5258,25 +5657,25 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5300,7 +5699,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55">
@@ -5316,7 +5715,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5325,22 +5724,22 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="J55" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="K55" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="L55" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="O55" t="s">
         <v>52</v>
@@ -5365,21 +5764,25 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="X55" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="Y55" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41060</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125624</v>
+      </c>
+      <c r="C56" t="s">
+        <v>434</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
@@ -5387,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5396,22 +5799,22 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J56" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="K56" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="L56" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O56" t="s">
         <v>52</v>
@@ -5426,21 +5829,25 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="X56" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="Y56" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41060</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125625</v>
+      </c>
+      <c r="C57" t="s">
+        <v>444</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
@@ -5448,7 +5855,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5457,16 +5864,16 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J57" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="K57" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="L57" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5493,21 +5900,25 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="X57" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="Y57" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41060</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>64746</v>
+      </c>
+      <c r="C58" t="s">
+        <v>453</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
@@ -5515,7 +5926,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5524,22 +5935,22 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J58" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K58" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="O58" t="s">
         <v>52</v>
@@ -5554,21 +5965,25 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="X58" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Y58" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41060</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125626</v>
+      </c>
+      <c r="C59" t="s">
+        <v>463</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
@@ -5576,7 +5991,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5585,22 +6000,22 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="J59" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="K59" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="O59" t="s">
         <v>52</v>
@@ -5615,21 +6030,25 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="X59" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Y59" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41060</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>31162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>470</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
@@ -5637,7 +6056,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5646,25 +6065,25 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J60" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="K60" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="L60" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5686,21 +6105,25 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="X60" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="Y60" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41060</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125627</v>
+      </c>
+      <c r="C61" t="s">
+        <v>480</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
@@ -5708,7 +6131,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5717,25 +6140,25 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="J61" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="K61" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="O61" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5759,15 +6182,19 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41060</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>4349</v>
+      </c>
+      <c r="C62" t="s">
+        <v>487</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
@@ -5775,7 +6202,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -5784,25 +6211,25 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="J62" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="K62" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="L62" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="O62" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5826,15 +6253,19 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41060</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125628</v>
+      </c>
+      <c r="C63" t="s">
+        <v>494</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
@@ -5842,7 +6273,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -5851,25 +6282,25 @@
         <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="J63" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="K63" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="O63" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5893,15 +6324,19 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41060</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125629</v>
+      </c>
+      <c r="C64" t="s">
+        <v>501</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
@@ -5909,7 +6344,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -5918,22 +6353,22 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="J64" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="K64" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="L64" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="O64" t="s">
         <v>52</v>
@@ -5960,15 +6395,19 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41060</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125630</v>
+      </c>
+      <c r="C65" t="s">
+        <v>507</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
@@ -5976,7 +6415,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="G65" t="s">
         <v>45</v>
@@ -5985,16 +6424,16 @@
         <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="K65" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="L65" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
@@ -6023,15 +6462,19 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41060</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125631</v>
+      </c>
+      <c r="C66" t="s">
+        <v>514</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
@@ -6039,7 +6482,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -6048,25 +6491,25 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="J66" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="K66" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="L66" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="O66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6090,15 +6533,19 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41060</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125632</v>
+      </c>
+      <c r="C67" t="s">
+        <v>521</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
@@ -6106,7 +6553,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="G67" t="s">
         <v>45</v>
@@ -6115,22 +6562,22 @@
         <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="J67" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s">
         <v>52</v>
@@ -6147,15 +6594,19 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41060</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125633</v>
+      </c>
+      <c r="C68" t="s">
+        <v>527</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
@@ -6163,7 +6614,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -6172,25 +6623,25 @@
         <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="J68" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="K68" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="L68" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="O68" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6214,15 +6665,19 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41060</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>92219</v>
+      </c>
+      <c r="C69" t="s">
+        <v>534</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
@@ -6230,7 +6685,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6239,25 +6694,25 @@
         <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="J69" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="K69" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="L69" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="O69" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6281,15 +6736,19 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41060</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>125634</v>
+      </c>
+      <c r="C70" t="s">
+        <v>542</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
@@ -6297,7 +6756,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="G70" t="s">
         <v>45</v>
@@ -6306,25 +6765,25 @@
         <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="J70" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="K70" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="O70" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6348,15 +6807,19 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41060</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>125635</v>
+      </c>
+      <c r="C71" t="s">
+        <v>549</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
@@ -6364,7 +6827,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="G71" t="s">
         <v>45</v>
@@ -6373,22 +6836,22 @@
         <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="J71" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="K71" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="L71" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="O71" t="s">
         <v>52</v>
@@ -6415,15 +6878,19 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41060</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>125636</v>
+      </c>
+      <c r="C72" t="s">
+        <v>556</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
@@ -6431,7 +6898,7 @@
         <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="G72" t="s">
         <v>45</v>
@@ -6440,22 +6907,22 @@
         <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="J72" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="K72" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="L72" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s">
         <v>52</v>
@@ -6478,15 +6945,19 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41060</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>125637</v>
+      </c>
+      <c r="C73" t="s">
+        <v>563</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
@@ -6494,7 +6965,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6503,25 +6974,25 @@
         <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="J73" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="K73" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="L73" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="O73" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6545,15 +7016,19 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41060</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>125638</v>
+      </c>
+      <c r="C74" t="s">
+        <v>570</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
@@ -6561,7 +7036,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="G74" t="s">
         <v>45</v>
@@ -6570,16 +7045,16 @@
         <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="J74" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="K74" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="L74" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -6608,15 +7083,19 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41060</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>125639</v>
+      </c>
+      <c r="C75" t="s">
+        <v>576</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
@@ -6624,7 +7103,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -6633,16 +7112,16 @@
         <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="J75" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="K75" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="L75" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
@@ -6671,15 +7150,19 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41060</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>125640</v>
+      </c>
+      <c r="C76" t="s">
+        <v>582</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
@@ -6687,7 +7170,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="G76" t="s">
         <v>45</v>
@@ -6696,22 +7179,22 @@
         <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="J76" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="K76" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="L76" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="O76" t="s">
         <v>52</v>
@@ -6738,7 +7221,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_101.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_101.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="617">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,71 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r597980298-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>241651</t>
+  </si>
+  <si>
+    <t>597980298</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Disappointing from a few years back</t>
+  </si>
+  <si>
+    <t>I booked a room for two nights online and when we arrived at the hotel, around 6:30 pm there was a line of several people waiting to get checked in.  In the process of checking in folk, the person at the desk takes a phone call and is on the phone for at least 7 minutes.  Then back to checking in guests.  Finally around 7:10 we got checked in and on our way to our room.  The room was warm so we turned down the ac.  It got some better during the night, however the ac blew out on the first bed and the rest of the room did not get much of the cooler air. The second night we could actually feel heat radiating from the ceiling and the ac worked overtime and the room never really cooled.  Breakfast was not very good at all.  I have stayed at this hotel about five years ago, and the quality has definitely gone down.    I probably will not have occasion to stay in McKinney for quite some time, so needless to say, we will probably not stay here again.Cleanliness was Ok, but the hotel in in dire need of an  update.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ComfortSuitesMcKinne, Hotel Manager at Comfort Suites McKinney, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I booked a room for two nights online and when we arrived at the hotel, around 6:30 pm there was a line of several people waiting to get checked in.  In the process of checking in folk, the person at the desk takes a phone call and is on the phone for at least 7 minutes.  Then back to checking in guests.  Finally around 7:10 we got checked in and on our way to our room.  The room was warm so we turned down the ac.  It got some better during the night, however the ac blew out on the first bed and the rest of the room did not get much of the cooler air. The second night we could actually feel heat radiating from the ceiling and the ac worked overtime and the room never really cooled.  Breakfast was not very good at all.  I have stayed at this hotel about five years ago, and the quality has definitely gone down.    I probably will not have occasion to stay in McKinney for quite some time, so needless to say, we will probably not stay here again.Cleanliness was Ok, but the hotel in in dire need of an  update.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r591038546-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>591038546</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>I'll get the negatives out of the way first.....  Unfortunately, they have to  take out the battery in the handicapped lift for the pool due to vandalism.  Gentleman staff said no problem, just let us know when you want us to put it in for you.  Next day, woman at front desk hemmed and hawed like I was asking for some crazy thing.  My mom was embarrassed feeling like she was being an imposition and let it drop.  She struggled to get in and out of the pool! We used the pool in the middle of the afternoon and there were lots of towels etc all over the ground.  Looked like guests from the night before really did a number on it.  After we left, a gentleman employee came and cleaned it up. .....  We had a pull-out couch in our room.  It has like 1 strap holding the mattress up.  It is a waste.  Felt so bad it had to be used.  It really needs to be replaced.  
+Aside from those problems, it is a great place.  It is centrally located.  Walking distance from car rental etc.  Most staff went out of their way to be nice and friendly.  Room was clean, lobby was fine.  Breakfast was a normal Comfort Suite's breakfast but staff kept it clean, tidy and well stocked.  We had a leak in the roll in handicapped shower and called maintenance.  They couldn't fix it right...I'll get the negatives out of the way first.....  Unfortunately, they have to  take out the battery in the handicapped lift for the pool due to vandalism.  Gentleman staff said no problem, just let us know when you want us to put it in for you.  Next day, woman at front desk hemmed and hawed like I was asking for some crazy thing.  My mom was embarrassed feeling like she was being an imposition and let it drop.  She struggled to get in and out of the pool! We used the pool in the middle of the afternoon and there were lots of towels etc all over the ground.  Looked like guests from the night before really did a number on it.  After we left, a gentleman employee came and cleaned it up. .....  We had a pull-out couch in our room.  It has like 1 strap holding the mattress up.  It is a waste.  Felt so bad it had to be used.  It really needs to be replaced.  Aside from those problems, it is a great place.  It is centrally located.  Walking distance from car rental etc.  Most staff went out of their way to be nice and friendly.  Room was clean, lobby was fine.  Breakfast was a normal Comfort Suite's breakfast but staff kept it clean, tidy and well stocked.  We had a leak in the roll in handicapped shower and called maintenance.  They couldn't fix it right then and there and couldn't be more apologetic.  The cleaning staff really went out of their way to accommodate us making sure we had enough towels with the leak.  We stay a Comfort Suites a lot and this one has some great employees.  I hope they know that.  Would stay there again without a doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I'll get the negatives out of the way first.....  Unfortunately, they have to  take out the battery in the handicapped lift for the pool due to vandalism.  Gentleman staff said no problem, just let us know when you want us to put it in for you.  Next day, woman at front desk hemmed and hawed like I was asking for some crazy thing.  My mom was embarrassed feeling like she was being an imposition and let it drop.  She struggled to get in and out of the pool! We used the pool in the middle of the afternoon and there were lots of towels etc all over the ground.  Looked like guests from the night before really did a number on it.  After we left, a gentleman employee came and cleaned it up. .....  We had a pull-out couch in our room.  It has like 1 strap holding the mattress up.  It is a waste.  Felt so bad it had to be used.  It really needs to be replaced.  
+Aside from those problems, it is a great place.  It is centrally located.  Walking distance from car rental etc.  Most staff went out of their way to be nice and friendly.  Room was clean, lobby was fine.  Breakfast was a normal Comfort Suite's breakfast but staff kept it clean, tidy and well stocked.  We had a leak in the roll in handicapped shower and called maintenance.  They couldn't fix it right...I'll get the negatives out of the way first.....  Unfortunately, they have to  take out the battery in the handicapped lift for the pool due to vandalism.  Gentleman staff said no problem, just let us know when you want us to put it in for you.  Next day, woman at front desk hemmed and hawed like I was asking for some crazy thing.  My mom was embarrassed feeling like she was being an imposition and let it drop.  She struggled to get in and out of the pool! We used the pool in the middle of the afternoon and there were lots of towels etc all over the ground.  Looked like guests from the night before really did a number on it.  After we left, a gentleman employee came and cleaned it up. .....  We had a pull-out couch in our room.  It has like 1 strap holding the mattress up.  It is a waste.  Felt so bad it had to be used.  It really needs to be replaced.  Aside from those problems, it is a great place.  It is centrally located.  Walking distance from car rental etc.  Most staff went out of their way to be nice and friendly.  Room was clean, lobby was fine.  Breakfast was a normal Comfort Suite's breakfast but staff kept it clean, tidy and well stocked.  We had a leak in the roll in handicapped shower and called maintenance.  They couldn't fix it right then and there and couldn't be more apologetic.  The cleaning staff really went out of their way to accommodate us making sure we had enough towels with the leak.  We stay a Comfort Suites a lot and this one has some great employees.  I hope they know that.  Would stay there again without a doubt.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r580265810-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
-    <t>56260</t>
-  </si>
-  <si>
-    <t>241651</t>
-  </si>
-  <si>
     <t>580265810</t>
   </si>
   <si>
@@ -174,21 +227,15 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>ComfortSuitesMcKinne, Hotel Manager at Comfort Suites McKinney, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>ComfortSuitesMcKinne, Hotel Manager at Comfort Suites McKinney, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
   </si>
   <si>
     <t>Their rooms are clean and spacious and the property is maintained well. The desk clerk gave me an extra pillow and bed sheet at 2 am when I requested, and they are very courteous.  I recommend this place to everyone. More</t>
   </si>
   <si>
-    <t>Mmardis2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r572984857-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -213,9 +260,6 @@
     <t>Check in was so pleasant with the gentleman (forgot to get his name) but he was so endearing and funny. The room is a small suite and clean. The bed is amazing, the TV is HD and a nice size and clear. Downside, maybe the AC (is completely adequate) but it's a unit that will not turn off when reaches the appropriate temp. But I kind of like the sound (quite noise). I would very recommend this hotel and will stay here again next year when I'm here on biz. And I saw someone with a dog, so I guess it's pet friendly tooMore</t>
   </si>
   <si>
-    <t>Bret H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r564402432-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -243,9 +287,6 @@
     <t>This place is overpriced for what you get. Don't let the pics online fool you. Our room smelled musty and had a leaky ac unit, the floor was wet. There are a lot of hotels in this area for around the same price. I would stay somewhere else.More</t>
   </si>
   <si>
-    <t>KevuPat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r515308394-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -276,9 +317,6 @@
     <t>Great Place to Stay, Very Nice Staff, Excellent Services, Very Neat and Clean Rooms , Affordable Price, Awsome Experience, Delicious continental Breakfast, Suitable place for Family and Business visits and I would love to visit again.More</t>
   </si>
   <si>
-    <t>Scott S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r504886127-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -303,7 +341,100 @@
     <t>Very nice room.Spotless and clean.Easy checkin.It was close to shopping and restaurants.Good rate.Right on major freeway so easy on an off.Breakfast was available.There was a very nice pool available for swimming.Also there was an exercise room.More</t>
   </si>
   <si>
-    <t>Doug K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r503626535-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>503626535</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Good location, clean, reasonable rate</t>
+  </si>
+  <si>
+    <t>Easy to access and close to most of Mckinney.  Rooms were very clean, staff very friendly and helpful. Highly recommended. Wifi was a little slow during peak times, ice machines didnt work on two floors but otherwise good.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Easy to access and close to most of Mckinney.  Rooms were very clean, staff very friendly and helpful. Highly recommended. Wifi was a little slow during peak times, ice machines didnt work on two floors but otherwise good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r495667637-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>495667637</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Manager unwilling to work with us</t>
+  </si>
+  <si>
+    <t>My family and I travel from the end of Feb until the end of July for baseball and basketball. With two sons playing ball we often stay at two separate hotels in different cities. We always try to stay at a Comfort Suites just because they are usually clean and staff is friendly. On the rare occasion a tournament is cancelled, I have always been able to call the hotel directly and they were more than happy to cancel our reservation (even if was passed the cancellation deadline.) They usually say something like "Not a problem. Thank you for booking with us, and for being a choice privileges member." After talking to the front desk, the Choice Privilege reservation center, and then the customer relations department for over an hour and a half they could not cancel my reservation. I was told each hotel is independently owned and that it was up to the hotel general manager if he or she wanted to cancel our reservation and not charge my credit card. Two of the 10 families who had booked rooms at the McKinny-Allen Comfort Suites were able to get their reservation cancelled, but no one else. Hmmm??? I guess the manager cares more about the money for one night stay than ever having us stay there again when we are near that area playing ball. In fact, I have a 4 night stay at the Comfort Suites in Waco...My family and I travel from the end of Feb until the end of July for baseball and basketball. With two sons playing ball we often stay at two separate hotels in different cities. We always try to stay at a Comfort Suites just because they are usually clean and staff is friendly. On the rare occasion a tournament is cancelled, I have always been able to call the hotel directly and they were more than happy to cancel our reservation (even if was passed the cancellation deadline.) They usually say something like "Not a problem. Thank you for booking with us, and for being a choice privileges member." After talking to the front desk, the Choice Privilege reservation center, and then the customer relations department for over an hour and a half they could not cancel my reservation. I was told each hotel is independently owned and that it was up to the hotel general manager if he or she wanted to cancel our reservation and not charge my credit card. Two of the 10 families who had booked rooms at the McKinny-Allen Comfort Suites were able to get their reservation cancelled, but no one else. Hmmm??? I guess the manager cares more about the money for one night stay than ever having us stay there again when we are near that area playing ball. In fact, I have a 4 night stay at the Comfort Suites in Waco starting tomorrow night, but will probably cancel that reservation, and "choose" to stay at other hotels from now on. Travelers beware if your plans might change, or in my case, if the weather, which I have no control over changes...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>My family and I travel from the end of Feb until the end of July for baseball and basketball. With two sons playing ball we often stay at two separate hotels in different cities. We always try to stay at a Comfort Suites just because they are usually clean and staff is friendly. On the rare occasion a tournament is cancelled, I have always been able to call the hotel directly and they were more than happy to cancel our reservation (even if was passed the cancellation deadline.) They usually say something like "Not a problem. Thank you for booking with us, and for being a choice privileges member." After talking to the front desk, the Choice Privilege reservation center, and then the customer relations department for over an hour and a half they could not cancel my reservation. I was told each hotel is independently owned and that it was up to the hotel general manager if he or she wanted to cancel our reservation and not charge my credit card. Two of the 10 families who had booked rooms at the McKinny-Allen Comfort Suites were able to get their reservation cancelled, but no one else. Hmmm??? I guess the manager cares more about the money for one night stay than ever having us stay there again when we are near that area playing ball. In fact, I have a 4 night stay at the Comfort Suites in Waco...My family and I travel from the end of Feb until the end of July for baseball and basketball. With two sons playing ball we often stay at two separate hotels in different cities. We always try to stay at a Comfort Suites just because they are usually clean and staff is friendly. On the rare occasion a tournament is cancelled, I have always been able to call the hotel directly and they were more than happy to cancel our reservation (even if was passed the cancellation deadline.) They usually say something like "Not a problem. Thank you for booking with us, and for being a choice privileges member." After talking to the front desk, the Choice Privilege reservation center, and then the customer relations department for over an hour and a half they could not cancel my reservation. I was told each hotel is independently owned and that it was up to the hotel general manager if he or she wanted to cancel our reservation and not charge my credit card. Two of the 10 families who had booked rooms at the McKinny-Allen Comfort Suites were able to get their reservation cancelled, but no one else. Hmmm??? I guess the manager cares more about the money for one night stay than ever having us stay there again when we are near that area playing ball. In fact, I have a 4 night stay at the Comfort Suites in Waco starting tomorrow night, but will probably cancel that reservation, and "choose" to stay at other hotels from now on. Travelers beware if your plans might change, or in my case, if the weather, which I have no control over changes...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r494959213-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>494959213</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Easy Access right in the middle of all things good.</t>
+  </si>
+  <si>
+    <t>This was a spur of a moment trip but it was well worth it.  The staff was exceptional.  The room was really nice.  I ask to be close to the elevator because of a bad knee and they were very accommodating.Breakfast was good and the coffee was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a spur of a moment trip but it was well worth it.  The staff was exceptional.  The room was really nice.  I ask to be close to the elevator because of a bad knee and they were very accommodating.Breakfast was good and the coffee was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r493992484-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>493992484</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Clean comfortable and friendly staff.</t>
+  </si>
+  <si>
+    <t>Stayed a couple nights here and found the Hotel staff to be pleasant and rooms comfortable and clean, with plenty of hot water with good pressure.Close to a assortment of restaurants like Olive Garden / Chili's / Applebee's and several pizza restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r447623092-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>447623092</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Great Stay, Friendly Staff</t>
+  </si>
+  <si>
+    <t>This is in a safe, convenient place in McKinney.  it's close to everything.  The staff at both check-in, breakfast, and check-out were all super friendly and helpful.  The breakfast fine, nothing fancy, but hot and fresh.  The room was comfortable and spacious.  Plenty of room for the four of us (2 adults and 2 teenagers).  We enjoyed our stay and believe it was also a great value for the cost.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r447253645-Comfort_Suites_McKinney-McKinney_Texas.html</t>
@@ -321,15 +452,6 @@
     <t>We spent four days over Christmas at this hotel.  It is a little older and did have a strange smell in the room that went away after you got used to it.  Comfortable room, clean and friendly staff.  Lots of shopping and resturants  near by and off the highway enough that it is quiet but still close to everything.  The breakfast is not all that special but good enough.</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Jennifer C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r446885141-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -345,9 +467,6 @@
     <t xml:space="preserve">We stayed here Christmas Day 2016 traveling to see family from Houston to Oklahoma.   Booked reservations over phone.  Charged more once we got there regardless of reservation.   Breakfast standard; Camryn was nice.  Not clean bathroom or bedroom, see pictures.  You hear traffic from rooms.  Beds were comfy.  I will book somewhere else next time.  </t>
   </si>
   <si>
-    <t>MangoRita80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r445984767-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -363,9 +482,6 @@
     <t xml:space="preserve">We met for family reunion. We all arrived well before check in after driving 5 hours. They had rooms together for us and we were able to get in early and start our festivities. Rooms were nice. Lots of seating. Large bathrooms. Beds and bedding were very nice. Cleaning staff checked with us frequently to make sure everything was good. Only improvement would be towel rack in bathroom. Breakfast was great. Hot food, waffles, cereal, juice, and lots of light options. Will definitely return. </t>
   </si>
   <si>
-    <t>Chas S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r445925938-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -378,9 +494,6 @@
     <t>The folks are very helpful, and courteous. It is near the center of McKinney and a number of restaurants, a shopping center,  Walmart, several banks, Central Expressway, Home Depot, Lowes, Hutchens BarBQue (the best BBQ in Texas</t>
   </si>
   <si>
-    <t>Resque</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r444876526-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -396,9 +509,6 @@
     <t>Very spacious with dining room, living room, separate dining room, bedroom and two person jacuzzi tub.  Friendly staff.  Good breakfast.  Location is a bit north of restaurants.  Freeway noise was not too bad.</t>
   </si>
   <si>
-    <t>Tim M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r440651604-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -417,9 +527,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Bryan C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r438047514-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -438,9 +545,6 @@
     <t>We were here for one Saturday night, the room cost was $130, which was the lower end of the market for hotels in the area that weekend.  While the staff were all very helpful, smiling, and friendly, the room felt damp and had a musty smell.  Bed was comfortable, place overall was clean.  For breakfast, skip the 'eggs' and sausage, and opt for the fresh waffle.  That tends to go for most of these included breakfasts, but in this case is especially important.  The meat and egg were lukewarm and just seemed awful.  We have stayed at the Hampton just north and would pick that one over this one, but it did the job for a quick overnight stay.  Also, it was $50 per night less for that weekend.More</t>
   </si>
   <si>
-    <t>okiegigi2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r437534962-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -456,9 +560,6 @@
     <t>This is a relatively new hotel. We checked in late on Saturday night, and every thing was ready for us. We would have liked to have breakfast but it didn't open until 7:00. This was too late for us as our baseball  tournament started practice at that time. This was the only negative we had for the hotel. The location is easy to find. The room was clean and wonderfully comfortable.  We will stay here again!</t>
   </si>
   <si>
-    <t>Brian M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r397379747-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -477,9 +578,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>CheraKay</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r394326203-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -495,9 +593,6 @@
     <t>The hotel was clean.  The room was spacious for my husband and 2 adult children.  The rate was good for the type of hotel.  The breakfast provided was good and the ladies who worked it were very sweet and helpful.I would stay here again.</t>
   </si>
   <si>
-    <t>Kabacho</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r380456175-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -522,9 +617,6 @@
     <t>I stayed an extra day and night in Texas to visit a very good friend of mine who lives near McKinney. I stayed in a King Suite, which was very nice and comfortable. I love the sitting area! The room was very clean and it was also quiet. The bed was quite comfortable and I was able to get a full night's sleep. The staff was friendly and helpful. There were several good options at breakfast including some hot dishes. Since a friend told me about Comfort Inns a few years ago, that is where I always stay now. I am able to get good value for my money, a comfortable and safe place to stay, courteous and helpful staff and a good breakfast. That's a win-win for me!More</t>
   </si>
   <si>
-    <t>Phillip S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r374850400-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -543,9 +635,6 @@
     <t>Overall - a good value for the rate I got.  The hotel was generally clean, but the hallway carpets could use a good cleaning as they were pretty dirty, especially on the 1st floor.  The room was good size and the bed was comfortable.  Housekeeping was a bit spotty.  We stayed for 3 days and the first day, a half empty coffee cup was left on the coffee table in the sitting area, and a used towel was left on the couch.  Housekeeping the second day was better, but the last day we were only given one bath towel for two people.The hotel was generally quiet at night, but they were doing some repairs to one of the rooms next to us midday that was pretty noisy.  Repairs have to be done sometime so not much you can do about that.  AC in the room worked well and was a bit loud, but we tend to like that as it drowns out other noises in the hallway.Kudos to the lady that ran the breakfast room.  She was friendly and helpful to everyone and did a good job making sure things were stocked.  My only suggestion would be that the hotel consider going back to thermal coffee dispensers that provide real brewed coffee.  The automatic coffee dispensers that this hotel had, (and unfortunately most seem to be going to) just don't provide a very good cup of coffee.More</t>
   </si>
   <si>
-    <t>MichelleHardman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r373925647-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -564,9 +653,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>texaspartyofsix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r373444068-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -585,9 +671,6 @@
     <t>Assistant manager Oscar is very rude and unprofessional.  They charged us twice for the room plus took another credit card for incidentals.  I was told the general Manager, Raj, was unavailable to talk to for about a week. I am still working to get the charged corrected.  Room wasn't the cleanest.  Sheets might not have been clean as they were yellow and smelled like dirty head.  The water smelled like wet dog and there was very little water pressure.  There were only three towels in the room.  The sofa bed was twin size and there was no pillow for it.  No one greeted us when we were checking in or walking out.  One person was getting a room change when I checked in.  I should have left then... The cream cheese and yogurt had a funny texture at breakfast.  It made me think food might not be stored properly.  Eat at your own risk.  The parking lot was scary.  There were groups of men hanging around in the parking lot when we checked in as well as when we came back from eating at the Olive Garden close by. I felt scared and took everything from my car and rushed in. Not the best part of town.  Rude and scary management that don't care but run a cheap hotel. I would not stay here again or recommend it to anyone.  We were here for a sports event.  Next time I...Assistant manager Oscar is very rude and unprofessional.  They charged us twice for the room plus took another credit card for incidentals.  I was told the general Manager, Raj, was unavailable to talk to for about a week. I am still working to get the charged corrected.  Room wasn't the cleanest.  Sheets might not have been clean as they were yellow and smelled like dirty head.  The water smelled like wet dog and there was very little water pressure.  There were only three towels in the room.  The sofa bed was twin size and there was no pillow for it.  No one greeted us when we were checking in or walking out.  One person was getting a room change when I checked in.  I should have left then... The cream cheese and yogurt had a funny texture at breakfast.  It made me think food might not be stored properly.  Eat at your own risk.  The parking lot was scary.  There were groups of men hanging around in the parking lot when we checked in as well as when we came back from eating at the Olive Garden close by. I felt scared and took everything from my car and rushed in. Not the best part of town.  Rude and scary management that don't care but run a cheap hotel. I would not stay here again or recommend it to anyone.  We were here for a sports event.  Next time I will drive a little farther down the road to stay at a nicer place and feel safe.More</t>
   </si>
   <si>
-    <t>MILK85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r371617022-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -639,9 +722,6 @@
     <t>The hotel was great!  The night clerk recommended a great local BBQ restaurant.  The woman in charge of the complimentary breakfast both mornings we were there was sweet and attentive.  The only complaint was that our room didn't get made up after we left on Saturday, but likely because we had the do not disturb sign on until almost 1pm.  Can't fault the hotel.</t>
   </si>
   <si>
-    <t>Staci P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r352615125-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -660,9 +740,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Chuck S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r347005740-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -678,9 +755,6 @@
     <t>Place was under construction while I was there.  Funny thing, the bathroom didn't have a toilet paper spindle.  My daughter stayed in a different room and they didn't have one either.  Not a bad place, but certainly not stellar.</t>
   </si>
   <si>
-    <t>RoadQueen2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r341943502-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -699,9 +773,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Norma S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r341027340-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -720,9 +791,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Amanda R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r340222490-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -738,9 +806,6 @@
     <t>For the price, good - clean - quiet - roomy hotel room.  Only a few minutes drive from the best bbq place north of Dallas.  Breakfast was okay.  No pool. Front desk staff was friendly and helpful.  frontage road and exit were a little confusing at first.</t>
   </si>
   <si>
-    <t>mtngoat2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r336099290-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -759,9 +824,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Bill S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r332651347-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -780,9 +842,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>BobTayne</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r326762046-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -798,9 +857,6 @@
     <t>A very nice hotel and very convenient. It was clean and friendly. You could tell by looking around the edges that it was aging, i would stay there again. One think about Choice hotels that's bothers me is that i am seeing more and more of them serving coffee from a machine instead of a pot. Some times it's kind of weak...I wish they would go back to brewing coffee.</t>
   </si>
   <si>
-    <t>TomCaine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r322641375-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -816,9 +872,6 @@
     <t>Nice, quiet, clean room in great proximity to downtown McKinney. Attentive, helpful staff. I would definately stay here again and/or would refer my friends or family to do the same. Great bang for the buck, no dissaointments whatsoever.</t>
   </si>
   <si>
-    <t>PunkyBo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r320270402-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -837,9 +890,6 @@
     <t>I booked this hotel based on the reviews I saw online. I honestly have no idea how these reviews could have been written by actual hotel guests. In the first room we checked into, the bathroom did not look clean. Toilet paper shreds and hairs were on the toilet. There were several hairs in the bathroom sink. The counter by the TV had a sticky substance on it. I was disgusted. The front desk clerk apologized and offered us a second room, which we accepted. The second room had toothpaste in the sink. It was late at night, and we were traveling with two young children, so we just decided to deal with it. The next morning I found a cricket in the bathroom. At breakfast, I opened a packet of instant oatmeal, and found a massive, rock-hard lump in the bottom of the packet (I'm not sure if the packet was just very old or had gotten wet). The hotel manager apologized, and said the most he could do was give us a 10% refund. I do not recommend this hotel and honestly cannot fathom that the current reviews were written by actual customers. The hotel is old, carpet is dingy and coming apart in the rooms (both that we were in), there is black mold growing around the sinks...More</t>
   </si>
   <si>
-    <t>Gdotte</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r318323287-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -855,9 +905,6 @@
     <t>Went to McKinney TX to visit family and go to the Texas State Fair . I called the propertyto see if an early check in was available. They gladly accommodated us. The property was clean and quiet . The bed was very comfortable . The breakfast was good as well.We plan on visiting family again . and will definitively stay here.</t>
   </si>
   <si>
-    <t>SamDP</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r316951232-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -876,9 +923,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Mommaspecial</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r314913239-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -894,7 +938,82 @@
     <t xml:space="preserve">Really enjoyed our 1 night stay here. The room was nice and large. The king size bed was very comfortable. The hotel was in a nice location and within walking distance of several eating places. The manger that booked our room for us was so helpful.  Didn't get to try the breakfast because we had to leave before breakfast was served. </t>
   </si>
   <si>
-    <t>travel_91111</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r312030613-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>312030613</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Very good place to stay</t>
+  </si>
+  <si>
+    <t>Had a wonderful time in the Dallas area and got a good nights sleep for 4 nights at this hotel.  Employees are extremely nice and accommodating.  Although it was right next to a heavy traffic area, we never heard the noise in our room.  Coffee always fresh and delicious and the breakfast was good.  The pool area only had 1 table so I think they could work on that but it is a very clean and we will defiantly stay again when we're in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r307916763-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>307916763</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Well Done!</t>
+  </si>
+  <si>
+    <t>Very pleased with this Comfort Suites. I can always count on these properties within the Choice Hotels brands to be generally good. Rarely do I come across a location that gets "A's" across the board. This location met that standard. Great looking facility, clean and well remodeled. The room was excellent with the new bedding package, ample charging locations, and no worn out towels. My best location in Dallas!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r307633502-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>307633502</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Nice family hotel.</t>
+  </si>
+  <si>
+    <t>This was a nice quiet hotel. It's right off the freeway but we never heard the traffic from our room. The hotel is near lots of restaurants and downtown is a few minutes drive. We didn't get to try out the pool. The breakfast didn't have a huge variety, but it was well stocked and the dining room wasn't crazy crowded like at other hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r307592393-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>307592393</t>
+  </si>
+  <si>
+    <t>Our 4 days at Comfort Suites in McKinney was wonderful!</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites located at 1590 N. Central Expressway in McKinney TX, for 4 days in August 2015, and had a wonderful experience!! The handicap accessible room was very spacious and clean. The bed was so comfy that we wanted to take it home with us! Yet even more so, the staff was amazing!! Oscar did everything to make us feel at home including a big smile &amp; warm greeting from the desk each morning. He gave us a good room rate even though we had not made prior arrangements to stay, and he also helped us connect the Wifi to our electronic devices when we were unable to get them to connect. The outdoor pool was clean and warm, and the workout room was very clean too. All of the staff we met were very nice! We also enjoyed our morning breakfasts in their breakfast room each day which included hot food items of eggs, meats, &amp; waffles; along with fruits, juices, cereals, toast &amp; bagels. If we ever get back to McKinney &amp; need a motel, we will definitely stay there again! We happily recommend this hotel to everyone, and want to thank Oscar &amp; the staff again so very much for such a wonderful stay!  ~ J &amp; L from Oregon ~MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites located at 1590 N. Central Expressway in McKinney TX, for 4 days in August 2015, and had a wonderful experience!! The handicap accessible room was very spacious and clean. The bed was so comfy that we wanted to take it home with us! Yet even more so, the staff was amazing!! Oscar did everything to make us feel at home including a big smile &amp; warm greeting from the desk each morning. He gave us a good room rate even though we had not made prior arrangements to stay, and he also helped us connect the Wifi to our electronic devices when we were unable to get them to connect. The outdoor pool was clean and warm, and the workout room was very clean too. All of the staff we met were very nice! We also enjoyed our morning breakfasts in their breakfast room each day which included hot food items of eggs, meats, &amp; waffles; along with fruits, juices, cereals, toast &amp; bagels. If we ever get back to McKinney &amp; need a motel, we will definitely stay there again! We happily recommend this hotel to everyone, and want to thank Oscar &amp; the staff again so very much for such a wonderful stay!  ~ J &amp; L from Oregon ~More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r299879593-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>299879593</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>Nice hotel! It was a nice hotel with friendly workers. Breakfast was good and when we arrived it was close to ending but the women in the kitchen was WONDERFUL! She made sure we had anything and everything we wanted. The rooms were clean and no complaints.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r298112807-Comfort_Suites_McKinney-McKinney_Texas.html</t>
@@ -909,12 +1028,6 @@
     <t>We stayed here for a business retreat. Oscar helped me with my reservations and he went above and beyond what I would have ever expected. The room was decent, this is an older property that needs a few upgrades the room, such as air conditioning. Our one room didn't cool every well. Other than that our stay was great.</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t>Kristina B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r286216366-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1064,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>camerabuff57</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r264341786-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -975,9 +1085,6 @@
     <t>We weren't able to enjoy the luxurious room for long, as we arrived after 10 p.m. and had to leave after breakfast, we slept so well in our quiet King suite. The room layout was spacious and the bed and pillows were so comfortable! I brought my own pillow along, as always, just in case I needed it, but I didn't use it throughout the trip. Everything from the shower to the continental breakfast was great. Only thing I remember being disappointed in was that my waffle was a bit too crispy. Big deal. We headed on our way happy and well-rested. Good thing, too, because we had to get on the Dallas/Ft. Worth freeway after we left. What a nightmare!More</t>
   </si>
   <si>
-    <t>Chad W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r263516967-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1106,6 @@
     <t>If you are looking to stay in the DFW area, it is well worth the money and the drive to make your way up to this part of town. Extremely accommodating and friendly staff and a very clean room, that came with a standard mini fridge and a microwave. The beds were comfortable and there was not a lot of noise from the road. The staff also turned me onto one of the best Tex-Mex restaurants I have ever tried in my life.They also have laundry facilities, which is nice if you are staying awhile or have been on the road for a few days. My only complaint was with the shower. Air in the pipes, it definitely woke me up in the morning. Seriously, it sounded like a banshee was going to come out of the shower head. The only other con, was the AC was not the coolest on a hot day, and it was noisy, it would wake us up when it would kick on periodically thoughout the night.The break was not bad the next morning, powdered eggs and turkey sausage and a waffle maker that made them in the shape of Texas.More</t>
   </si>
   <si>
-    <t>MinimalTravels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r261119505-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +1127,6 @@
     <t>This property was very nice with nicely apportioned rooms and other facilities. There is a meeting room on site as well as a smaller conference room adjacent to the business center with several desktop computers and a printer available for guests' use. The room was nicely decorated, had two beds, and a small couch that contained a bed as well. The HVAC controls left a little to be desired as the controls were on the under-window unit and had to be tinkered with the get the right balance of temperature. Having an actual thermostat with a degree reading would have made this a bit easier and potentially more comfortable. The workout facilities were not oversized, but contained several pieces of quality equipment to help guests stay in shape while away from their normal routines and locations. The free breakfast was nice, but it would have been good to see a little variation from day to day. A light buffet style of foods were presented along with the standard staples of bagels and danishes and a juice dispenser. All in all, this was a nice property and was certainly a good choice for the price we paid for several nights.More</t>
   </si>
   <si>
-    <t>Kay W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r254460978-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1041,9 +1142,6 @@
     <t>Hands down the most friendly, accommodating manager we've experienced! Oscar met us at check in, arranged for rooms close together for our group of eight, gave directions and suggestions to local attractions and good places to eat during our 3 day stay and always made time to do this with personality and flair! And he was obviously extremely busy overseeing his staff and a full house! He made us feel like guests in his personal home! Well done, Oscar! Thank you!</t>
   </si>
   <si>
-    <t>J G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r234168815-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1071,9 +1169,6 @@
     <t>I wish I could give this hotel ten stars. Great front desk guys, every time, no matter what help I needed. Spit spot clean room, lobby and breakfast area. Good food and fresh right up until time to close up. Lady in the breakfast area (Veleta) was helpful and friendly. Parking lot is well lit. We felt safe going in and out at all hours of the day and night. Many stores close by from shopping to grocery stores to drug stores, and easily accessible. There is all kind of construction going on and it was still easy to get to and from this hotel. Both of us have issues with our back and we both slept well.  It was a plus to have a microwave and fridge in our room. The hotel was full but based on noise (it was quiet) and parking (there was plenty) and the elevator (it was quick) , you would never know it.More</t>
   </si>
   <si>
-    <t>TerryRandy420</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r231965739-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1099,9 +1194,6 @@
   </si>
   <si>
     <t>Stayed here for 5 nights because of one of my palzianos getting married. I would consider my trip to be a good one. The hotel was very nice other than a few cleanliness issues like mold on the shower curtains and a few miscellaneous stains here and there. I stayed in a 2 queen bed room on the 2nd floor and I had a wonderful view of a bank parking lot and a Pizza Hut sign. The manager helped me get a good deal and was very helpful and friendly considering I had to ask him for complementary tooth paste 6 times because I forgot to pack my own. This is a very quiet hotel and I would (and probably will) stay here again.More</t>
-  </si>
-  <si>
-    <t>missgee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r224454397-Comfort_Suites_McKinney-McKinney_Texas.html</t>
@@ -1131,9 +1223,6 @@
 We stay in a Comfort Inn when we visit our parents, and there is no comparison in the two hotels.  This hotel is in a good location and could be a great place to stay if they would put in...We made our reservations based on all of the great reviews for this hotel.  I had to double check the address of the hotel to make sure we had the right location.  The hotel is in need of updating.  When we walked into our room there was a very musty smell.  The front desk attendant gave us a key to another room and when we went into that room, it smelled even worse.  We went back to the first room.  Attendant told us it was probably the air conditioner(which tells me they know it is a problem.)  I really wanted to leave then, but we had been traveling all day with children and we needed to get them to bed.  The room needed a deep cleaning.  the walls needed painting.  The toilet paper holder was broken in the bathroom, so I left the toilet paper off so the maid could fix it.  When I came back, she had put the paper back on the broken holder.  You had to hold the handle on the toilet to make it flush.  The sheets did not fit the beds, and the beds were not made well. The elevator shook on the way down.  We stay in a Comfort Inn when we visit our parents, and there is no comparison in the two hotels.  This hotel is in a good location and could be a great place to stay if they would put in a little more TLC.More</t>
   </si>
   <si>
-    <t>Sandeeu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r224451274-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1146,9 +1235,6 @@
     <t>Spent two nights at this hotel.  It was in a good    location and easy access. The room was clean and comfortable.   Breakfast was good for a hotel. All the people that work at this hotel were friendly and helpful. I would stay there again.</t>
   </si>
   <si>
-    <t>angiinkc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r216721616-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1256,6 @@
     <t>This was a great stay overall.  The hotel is in a great location.  If you haven't been to McKinney, the downtown area is supercool, and relatively close to this hotel.  We just happened upon it when looking at restaurants on trip advisor.  Please be aware though that this hotel was difficult to find because the GPS kept getting confused.  There is also quite a bit of shopping nearby.  The hotel appears to be relatively new and was very clean.  Our room was a great side and even though we were right outside the lobby area, we could not hear anything so that was also very nice.  The breakfast area was also very clean, and there was adequate seating and quite a few choices.  The thing I liked about this hotel was their pool.  I went out to swim in the morning and it had a lot of shade which was very nice since it is so hot there, with the way the buildings were.  It would be great if you were there with your family and are able to swim in the morning.  I do not do well in the bright sun, so that was a nice little perk.  It wasn't a huge pool, but it was nice.  I would recommend this hotel.More</t>
   </si>
   <si>
-    <t>Dan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r212227456-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1283,6 @@
     <t>Everytime I work up in this area I always come here.Rooms are very nice and well takin care of with plenty of room ! All the employees here are excellent and very helpful ,enjoy staying here ! I recommend this location for your stay in McKinney Texas with plenty of places to eat out at .More</t>
   </si>
   <si>
-    <t>Mjaj2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r210715962-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1221,9 +1301,6 @@
     <t>We're staying here for me to have some medical testing in the area. The staff was very kind to upgrade our room to a jacuzzi suite for our stay. The room was pleasantly cold when we walked in and it was clean.  Two TV's is normal but two A/C's isn't. The room has a dinning room table with 4 chairs, microwave, refrigerator and a sink. This is prefect for my medical supplies during this stay. The spacious room gives us a feeling of being at home. Quite comforting when you away from home for medical reasons. Thank you so much for you staff. They have made this stay a pleasure during a non pleasant trip. Thanks  More</t>
   </si>
   <si>
-    <t>DMEJordan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r208605060-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1239,9 +1316,6 @@
     <t xml:space="preserve">Nice room! Great mattress and nice pillow options. Best nights sleep in a very long time. We even enjoyed the free breakfast; a nice variety, something for everyone. The only thing that could have made it better is if the coffee was Folgers, not that what they have is bad. ;) if anyone knows what mattress that was that we slept on we want for home. We will recommend to friends and family and we will stay here again should the need arise. </t>
   </si>
   <si>
-    <t>Marge B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r203971972-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1260,9 +1334,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Lori N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r199668192-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1326,9 +1397,6 @@
     <t>The room was very well dressed. Beds were comfortable. The staff was excellent even with my kids. They went above and beyond to make sure our stay was great. The guy at the front desk made sure that we had everything we needed, the restroom was nice and spacious. I like the fact that their bath towels are actually big enough for more than a toddler.More</t>
   </si>
   <si>
-    <t>DCP2202</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r179772936-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1356,9 +1424,6 @@
     <t>My mother and I traveled to McKinney to attend a funeral. We called the hotel for reservations while we were still traveling. The gentleman that answered the phone was very helpful and accommodating. Upon arrival later in the evening, the same gentlemen, K.B., went out of his way to make sure we got checked in ok and settled in without any problems. He gave us a good rate and assisted me in enrolling in the Choice Privileges program. He followed up with phone calls to make sure the room was fine and that we had everything we needed. He was very gracious and helpful. K.B. was on duty when we checked out as well and was equally helpful. The hotel was clean and quiet. We did not utilize any of the on site amenities except for breakfast. There was plenty of choices including waffles, bacon, and eggs. All of the staff we encountered were pleasant and professional. I would recommend this hotel.More</t>
   </si>
   <si>
-    <t>JPK2wx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r169069680-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1383,9 +1448,6 @@
     <t>This is the best hotel I have ever stayed in. The staff is amazing and extremely friendly, the room is very nice with a very spacious bathroom, minifridge, and microwave. Outdoor pool is great for all ages! Fitness room has a TV, multipurpose machine, treadmill, and stationary bike. Breakfast is free and very filling, with a spacious eating space, well-stocked and delicious food and a TV. Also has a business center with fax and printing for free. Awesome hotel!More</t>
   </si>
   <si>
-    <t>Pli876</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r166502550-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1413,9 +1475,6 @@
     <t>--Air conditioner loud and NEVER turns off!  Prepared to be very cold or very hot!--Tub is small--The hotel plays a fun game called, "How much furniture can I fit in the smallest space possible?"--The staff looked unkept--Bed not comfortableGo somewhere else!More</t>
   </si>
   <si>
-    <t>1DangerousDiner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r166359719-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1434,9 +1493,6 @@
     <t>July 2, 2013Older, nicely renovated hotel. Nice people.  Very low grade breakfast. All AC units full of mold.  Looked into six different units in six different rooms with a flashlight and saw it with my own eyes....MOLD! and lots of it.  If you are sensitive to mold spores or mold, choose a different hotel.  My wife and I spent 2 nights of a 10 night reservation until we had to leave because the AC unit in our room smelled musty and moldy and no other room was better.  We had other maintenance issues as well but the staff at the hotel quickly, and to their credit, took care of the issues immediately.  Unfortunately, cleaning the AC units is something a professional company needs to do.  It is far beyond the hotels maintenance man's abilities to do what's necessary to properly clean a wall mounted AC unit.     We moved to the (3 year old) Hilton's Homewood Suites in Allen and it was like night and day for about the same price.  The Comfort Suites tries it's best but they really need to have their AC units cleaned.More</t>
   </si>
   <si>
-    <t>Kenneth S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r163978007-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1464,9 +1520,6 @@
     <t>We were recommended to stay here by the Lamb and Lion Ministries and it was an excellent place to stay. It was very convenient as we were going back there the next morning to Lamb and Lion. Rooms were very clean and nice and this was our first night of staying in Comfort Inn and was an enjoyable stay as we were there long enough to enjoy the amenities. Breakfast was very good.More</t>
   </si>
   <si>
-    <t>JdubyaMO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r162620545-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1485,9 +1538,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>David K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r158328722-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1506,9 +1556,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Kishan P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r156735298-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1527,9 +1574,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>cap10awesome</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r154526437-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1545,9 +1589,6 @@
     <t>The hotel was very nice with polite employees. The rooms are spacious and clean. It also offers good breakfast (included in the price) and it is in an affordable price. I would definitely stay again if in the area.</t>
   </si>
   <si>
-    <t>Pam Q</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r149305823-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1566,9 +1607,6 @@
     <t>We recently Selected the Comfort Suites  in McKinney as our venue for the wedding guests at my daughter's wedding.  It accommodated all of us very well with clean rooms, a good hot breakfast, and a friendly front desk staff. The breakfast room allowed us all to meet in the mornings and get the day started together.  When we had to assemble  wedding programs at the last minute, we got to use the small board room.  The only complaint I heard was about a noisy heater in one of the rooms.  All rooms were fairly  spacious with comfortable beds, a sitting area , microwave, and  a small fridge. The 2 bedroom apartment was nice but it only had one bathroom.  The location is convenient on highway 75 and close to McKinney's historic downtown.  Very good for the block room price and value.More</t>
   </si>
   <si>
-    <t>Chipster58</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r146575815-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1587,9 +1625,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>JimTritten</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r146088942-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1605,9 +1640,6 @@
     <t xml:space="preserve">We are repeat customers when visiting family nearby.  Been staying here for years.  Good location, nice rooms, very friendly staff.  Complementary breakfast is typical and filling.  Rooms clean and quiet.  Beds comfortable.  We use the exercise room each visit. Treadmill, exercise multipurpose machine, stationary bicycle.  Good parking with access to side entrances. We will be back.  </t>
   </si>
   <si>
-    <t>2cruise7seas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r131886505-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1626,9 +1658,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>AnneKaty</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r131162332-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1650,9 +1679,6 @@
     <t>We stayed in a 2 bedroom suite.  The Cons: The room did not have a third TV (only in 1 bedroom) as described-Front desk seemed to not know what I was talking about.  Regarding utensils in the kitchen, there was 1 fork...that's it.  I had to go down to the breakfast area to get plastic utenils.  The kitchen had no paper towels and no dish towels.  The AC was off when we entered and the room was quite warm (cooled down pretty quickly).The Pros: The beds, linens and pillows were really comfortable. The room was very clean and the bathroom was huge. The furniture looked updated and was comfortable.  The hotel was very conveniently located off the highway (so there is highway noise at night).  In general, I thought it was a bit expensive for what it was, and I would not likely stay her again.More</t>
   </si>
   <si>
-    <t>YUMorYUCK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r130883418-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1671,9 +1697,6 @@
     <t>My husband and I stayed two nights at the Comfort Suites in McKinney, Texas. This hotel was very clean and well organized The bathrooms and rooms are updated and extremely clean. The staff were extremely accomodating. We would stay here again.Breakfast was standard continental. Nothing out of the ordinary or exemplary but everything was well stocked and in order.Room: Nice size room with king size bed and sitting area, room has refrigerator, microwave and coffee maker. The bed was ok on the cofort scale - not plush but not hard either. The air conditioning was GREAT. Manager - he was on top of everything. I peronally saw him watering plants. Picking up in the parking lot. checking rooms and cleanliness. WAY TO WORK!!!!!!More</t>
   </si>
   <si>
-    <t>ztrips</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r128401357-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1692,9 +1715,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>TheGreatTheo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r116211561-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1713,9 +1733,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>Frequentravel-her</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r105667136-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1734,9 +1751,6 @@
     <t>April 2011</t>
   </si>
   <si>
-    <t>JAFLP</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r104490276-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1752,9 +1766,6 @@
     <t>Because we usually travel in our RV, I was very hesitant about staying in a hotel. However, I was very, very pleased with this one. The staff was very friendly, the breakfasts plentiful, the hotel clean, housekeeping did a good job on our room. I found the above true throughout our 4 day stay. I understand they are in the process of remodeling the entire hotel with the third floor nearly done.</t>
   </si>
   <si>
-    <t>anemonefish</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r83867021-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1770,9 +1781,6 @@
     <t>My 91 year old mother needed a place to stay for a few days and we chose the Comfort Suites. The staff could not have been more accommodating  and helpful, from front desk to housekeeping to breakfast crew. They have two accessible rooms near the front entrance which, like all their rooms, include fridge and microwave.  Warm appointments. Suggest 2nd floor if you like privacy since windows open on parking. Lots of eateries and shopping nearby, walking distance for much of it. WiFi and a functional little business center, plus meeting space. If you have to be in McKinney, this is a good choice.</t>
   </si>
   <si>
-    <t>vwhittaker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r31306313-Comfort_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1789,6 +1797,84 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r18189005-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>18189005</t>
+  </si>
+  <si>
+    <t>07/23/2008</t>
+  </si>
+  <si>
+    <t>Will stay again at this smoke-free hotel</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights while visiting family and friends in the area.Check-in was the fastest and most convenient anywhere.  Front desk staff were friendly and helpful.  Hotel Room &amp; bathroom were among cleanest we've ever stayed (including 5-star hotels in Boston &amp; New York).King-size bed was firm but comfortable.Great A/C--it was 100 degrees outside and we were nice &amp; cool inside.Complimentary breakfast included eggs and breakfast meat (sausage or diced ham) in addition to breads, cereals, pastries.  Coffee was okay, but there is also a Starbucks less than a block away on the other side of the freeway.  (For a real McKinney experience, get the front desk to give you directions to Bill Smith's cafe for breakfast--about 3 blocks away)Plenty of parking close to entrance of hotel.  Adjacent to Central Expressway (Hwy 75).  Close to shopping areas and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights while visiting family and friends in the area.Check-in was the fastest and most convenient anywhere.  Front desk staff were friendly and helpful.  Hotel Room &amp; bathroom were among cleanest we've ever stayed (including 5-star hotels in Boston &amp; New York).King-size bed was firm but comfortable.Great A/C--it was 100 degrees outside and we were nice &amp; cool inside.Complimentary breakfast included eggs and breakfast meat (sausage or diced ham) in addition to breads, cereals, pastries.  Coffee was okay, but there is also a Starbucks less than a block away on the other side of the freeway.  (For a real McKinney experience, get the front desk to give you directions to Bill Smith's cafe for breakfast--about 3 blocks away)Plenty of parking close to entrance of hotel.  Adjacent to Central Expressway (Hwy 75).  Close to shopping areas and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r7853982-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>7853982</t>
+  </si>
+  <si>
+    <t>06/14/2007</t>
+  </si>
+  <si>
+    <t>Would stay here again any time!</t>
+  </si>
+  <si>
+    <t>We spent four nights here in early June, and were quite comfortable. The room was very clean; not huge but big enough to spread out.  The closet actually had doors (!); the bed was very comfy; the shower was good.  The bathroom was spacious and the lighting excellent.  Also plenty of lights in the room itself, and a full-length mirror, too.  There were a few signs of wear, but nothing really bad.  The front desk people were always friendly and helpful, and the breakfast was good, although we usually fix oatmeal in our room and just bring toast and juice upstairs.  We heard very little noise from the hallway or from outside the building, even though it's located near a busy expressway.  We love the fact that all Comfort Suites are now non-smoking!  If we have any reason to return to McKinney, we will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>We spent four nights here in early June, and were quite comfortable. The room was very clean; not huge but big enough to spread out.  The closet actually had doors (!); the bed was very comfy; the shower was good.  The bathroom was spacious and the lighting excellent.  Also plenty of lights in the room itself, and a full-length mirror, too.  There were a few signs of wear, but nothing really bad.  The front desk people were always friendly and helpful, and the breakfast was good, although we usually fix oatmeal in our room and just bring toast and juice upstairs.  We heard very little noise from the hallway or from outside the building, even though it's located near a busy expressway.  We love the fact that all Comfort Suites are now non-smoking!  If we have any reason to return to McKinney, we will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r7539060-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>7539060</t>
+  </si>
+  <si>
+    <t>05/01/2007</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Our stay at the Comfort Suites was nice.  We were there for a softball tournament.  The front desk staff was very friendly and accomodating.  The rooms are very clean.  The breakfast had hot items such as eggs, sausage, and waffles.  There are several restaurants within a short distance from the hotel.  There is easy on and off access to Hwy 75.  It is a very modern building in a Business Park.  I highly recommend this property.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d241651-r7402912-Comfort_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>7402912</t>
+  </si>
+  <si>
+    <t>04/19/2007</t>
+  </si>
+  <si>
+    <t>Very Busy Hotel but Nice</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Suites during the Nascar weekend thinking this property would be far enough away from the race track that it wouldn't be crowded with race fans.  Boy was I wrong :)  The hotel was sold out due to the race and to a kids softball tournament.  There were a number of little boys running down the halls late at night knocking on doors.  Five or six guests complained to the desk clerk about the kids and the problem was taken care of immediately (thanks!).  The hotel is in a great location for McKinney, Plano, and Denton (intersection of 380 and 75).  Parking is well lit with a lot of restaurants near by (including Olive Garden). The rooms were fine and come with a dorm refrigerator and a microwave.  A free breakfast was served in a room off the lobby and was good.  The only thing I didn't care for was the heater in the room (it was a little quirky).  Otherwise, this was a nice choice for approximately $100/night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Suites during the Nascar weekend thinking this property would be far enough away from the race track that it wouldn't be crowded with race fans.  Boy was I wrong :)  The hotel was sold out due to the race and to a kids softball tournament.  There were a number of little boys running down the halls late at night knocking on doors.  Five or six guests complained to the desk clerk about the kids and the problem was taken care of immediately (thanks!).  The hotel is in a great location for McKinney, Plano, and Denton (intersection of 380 and 75).  Parking is well lit with a lot of restaurants near by (including Olive Garden). The rooms were fine and come with a dorm refrigerator and a microwave.  A free breakfast was served in a room off the lobby and was good.  The only thing I didn't care for was the heater in the room (it was a little quirky).  Otherwise, this was a nice choice for approximately $100/night.More</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2409,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -2333,10 +2419,14 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2354,12 +2444,8 @@
       <c r="A3" t="n">
         <v>41060</v>
       </c>
-      <c r="B3" t="n">
-        <v>125593</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
@@ -2367,60 +2453,66 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41060</v>
       </c>
-      <c r="B4" t="n">
-        <v>125594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
@@ -2428,106 +2520,92 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41060</v>
       </c>
-      <c r="B5" t="n">
-        <v>125595</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2538,25 +2616,21 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41060</v>
       </c>
-      <c r="B6" t="n">
-        <v>6881</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -2564,7 +2638,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2573,34 +2647,34 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>4</v>
@@ -2609,25 +2683,21 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41060</v>
       </c>
-      <c r="B7" t="n">
-        <v>9440</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -2635,7 +2705,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2644,55 +2714,51 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41060</v>
       </c>
-      <c r="B8" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -2700,60 +2766,66 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41060</v>
       </c>
-      <c r="B9" t="n">
-        <v>125596</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -2761,46 +2833,56 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
       <c r="Y9" t="s">
         <v>114</v>
       </c>
@@ -2809,12 +2891,8 @@
       <c r="A10" t="n">
         <v>41060</v>
       </c>
-      <c r="B10" t="n">
-        <v>125597</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -2822,19 +2900,19 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>116</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>117</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
       </c>
       <c r="K10" t="s">
         <v>118</v>
@@ -2843,10 +2921,14 @@
         <v>119</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2856,22 +2938,22 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" t="s">
+        <v>97</v>
+      </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41060</v>
       </c>
-      <c r="B11" t="n">
-        <v>125598</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -2879,7 +2961,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2888,31 +2970,31 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
@@ -2923,22 +3005,22 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" t="s">
+        <v>97</v>
+      </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41060</v>
       </c>
-      <c r="B12" t="n">
-        <v>2208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -2946,7 +3028,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2955,57 +3037,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41060</v>
       </c>
-      <c r="B13" t="n">
-        <v>19563</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -3013,41 +3085,41 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>132</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -3058,19 +3130,15 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41060</v>
       </c>
-      <c r="B14" t="n">
-        <v>125599</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -3078,64 +3146,60 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
         <v>141</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>142</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>143</v>
       </c>
-      <c r="K14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" t="s">
-        <v>145</v>
-      </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41060</v>
       </c>
-      <c r="B15" t="n">
-        <v>10345</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -3143,34 +3207,34 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
         <v>147</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>148</v>
-      </c>
-      <c r="J15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" t="s">
-        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3184,19 +3248,15 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41060</v>
       </c>
-      <c r="B16" t="n">
-        <v>125600</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -3204,7 +3264,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -3213,22 +3273,22 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
@@ -3245,19 +3305,15 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41060</v>
       </c>
-      <c r="B17" t="n">
-        <v>125601</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -3265,7 +3321,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -3274,26 +3330,22 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="N17" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" t="s">
-        <v>166</v>
-      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -3306,19 +3358,15 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41060</v>
       </c>
-      <c r="B18" t="n">
-        <v>56481</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -3326,7 +3374,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3335,47 +3383,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41060</v>
       </c>
-      <c r="B19" t="n">
-        <v>125602</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -3383,7 +3437,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3392,27 +3446,29 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>166</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>4</v>
@@ -3420,7 +3476,7 @@
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3428,19 +3484,15 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41060</v>
       </c>
-      <c r="B20" t="n">
-        <v>125603</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -3448,7 +3500,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3457,35 +3509,35 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3493,19 +3545,15 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41060</v>
       </c>
-      <c r="B21" t="n">
-        <v>125604</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -3513,7 +3561,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3522,30 +3570,34 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="s"/>
       <c r="V21" t="n">
@@ -3554,7 +3606,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -3570,7 +3622,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3579,43 +3631,39 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -3631,7 +3679,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3640,57 +3688,47 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41060</v>
       </c>
-      <c r="B24" t="n">
-        <v>125605</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -3698,7 +3736,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3707,55 +3745,47 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41060</v>
       </c>
-      <c r="B25" t="n">
-        <v>19274</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -3763,7 +3793,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3772,55 +3802,43 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
-      <c r="N25" t="s">
-        <v>213</v>
-      </c>
-      <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41060</v>
       </c>
-      <c r="B26" t="n">
-        <v>125606</v>
-      </c>
-      <c r="C26" t="s">
-        <v>220</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -3828,7 +3846,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3837,35 +3855,35 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3873,19 +3891,15 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41060</v>
       </c>
-      <c r="B27" t="n">
-        <v>125607</v>
-      </c>
-      <c r="C27" t="s">
-        <v>227</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -3893,7 +3907,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3902,37 +3916,35 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3940,19 +3952,15 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41060</v>
       </c>
-      <c r="B28" t="n">
-        <v>14315</v>
-      </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3969,25 +3977,25 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4001,19 +4009,15 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41060</v>
       </c>
-      <c r="B29" t="n">
-        <v>125608</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -4030,33 +4034,31 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -4068,19 +4070,15 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41060</v>
       </c>
-      <c r="B30" t="n">
-        <v>4263</v>
-      </c>
-      <c r="C30" t="s">
-        <v>247</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
@@ -4088,7 +4086,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -4097,37 +4095,37 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4135,19 +4133,15 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41060</v>
       </c>
-      <c r="B31" t="n">
-        <v>125609</v>
-      </c>
-      <c r="C31" t="s">
-        <v>254</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -4155,7 +4149,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -4164,33 +4158,31 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -4202,19 +4194,15 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41060</v>
       </c>
-      <c r="B32" t="n">
-        <v>125610</v>
-      </c>
-      <c r="C32" t="s">
-        <v>260</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -4222,7 +4210,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -4231,35 +4219,35 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4267,19 +4255,15 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41060</v>
       </c>
-      <c r="B33" t="n">
-        <v>125611</v>
-      </c>
-      <c r="C33" t="s">
-        <v>266</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -4287,7 +4271,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4296,35 +4280,35 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s">
         <v>52</v>
       </c>
-      <c r="P33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4332,19 +4316,15 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41060</v>
       </c>
-      <c r="B34" t="n">
-        <v>125612</v>
-      </c>
-      <c r="C34" t="s">
-        <v>273</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -4352,7 +4332,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4361,31 +4341,31 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -4399,19 +4379,15 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41060</v>
       </c>
-      <c r="B35" t="n">
-        <v>125613</v>
-      </c>
-      <c r="C35" t="s">
-        <v>279</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -4419,7 +4395,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4428,25 +4404,25 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4460,19 +4436,15 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41060</v>
       </c>
-      <c r="B36" t="n">
-        <v>125614</v>
-      </c>
-      <c r="C36" t="s">
-        <v>286</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -4480,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4489,51 +4461,53 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="O36" t="s">
-        <v>102</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41060</v>
       </c>
-      <c r="B37" t="n">
-        <v>125615</v>
-      </c>
-      <c r="C37" t="s">
-        <v>292</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -4541,7 +4515,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4550,51 +4524,53 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41060</v>
       </c>
-      <c r="B38" t="n">
-        <v>23726</v>
-      </c>
-      <c r="C38" t="s">
-        <v>298</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -4602,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4611,34 +4587,34 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s">
         <v>52</v>
       </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4649,7 +4625,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
@@ -4665,7 +4641,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4674,25 +4650,25 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4702,7 +4678,7 @@
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4710,19 +4686,15 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41060</v>
       </c>
-      <c r="B40" t="n">
-        <v>125616</v>
-      </c>
-      <c r="C40" t="s">
-        <v>311</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -4730,7 +4702,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4739,37 +4711,35 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4777,19 +4747,15 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41060</v>
       </c>
-      <c r="B41" t="n">
-        <v>16013</v>
-      </c>
-      <c r="C41" t="s">
-        <v>319</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -4797,7 +4763,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4806,32 +4772,34 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="O41" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4842,19 +4810,15 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41060</v>
       </c>
-      <c r="B42" t="n">
-        <v>125617</v>
-      </c>
-      <c r="C42" t="s">
-        <v>327</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -4862,7 +4826,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4871,55 +4835,47 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41060</v>
       </c>
-      <c r="B43" t="n">
-        <v>25943</v>
-      </c>
-      <c r="C43" t="s">
-        <v>335</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -4927,7 +4883,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4936,25 +4892,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4968,19 +4924,15 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41060</v>
       </c>
-      <c r="B44" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C44" t="s">
-        <v>341</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -4988,7 +4940,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4997,27 +4949,29 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s">
         <v>52</v>
       </c>
-      <c r="P44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="n">
@@ -5030,26 +4984,18 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>348</v>
-      </c>
-      <c r="X44" t="s">
-        <v>349</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41060</v>
       </c>
-      <c r="B45" t="n">
-        <v>125618</v>
-      </c>
-      <c r="C45" t="s">
-        <v>351</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -5057,7 +5003,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -5066,61 +5012,47 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>358</v>
-      </c>
-      <c r="X45" t="s">
-        <v>359</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41060</v>
       </c>
-      <c r="B46" t="n">
-        <v>125619</v>
-      </c>
-      <c r="C46" t="s">
-        <v>361</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -5128,7 +5060,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -5137,57 +5069,47 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s">
         <v>52</v>
       </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41060</v>
       </c>
-      <c r="B47" t="n">
-        <v>101994</v>
-      </c>
-      <c r="C47" t="s">
-        <v>369</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -5195,7 +5117,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -5204,51 +5126,49 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="J47" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="K47" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="L47" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41060</v>
       </c>
-      <c r="B48" t="n">
-        <v>125620</v>
-      </c>
-      <c r="C48" t="s">
-        <v>374</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -5256,7 +5176,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5265,57 +5185,47 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="J48" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="K48" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="O48" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41060</v>
       </c>
-      <c r="B49" t="n">
-        <v>4519</v>
-      </c>
-      <c r="C49" t="s">
-        <v>382</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -5323,7 +5233,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5332,65 +5242,47 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>208</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>389</v>
-      </c>
-      <c r="X49" t="s">
-        <v>390</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41060</v>
       </c>
-      <c r="B50" t="n">
-        <v>125621</v>
-      </c>
-      <c r="C50" t="s">
-        <v>392</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -5398,7 +5290,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5407,51 +5299,53 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41060</v>
       </c>
-      <c r="B51" t="n">
-        <v>125622</v>
-      </c>
-      <c r="C51" t="s">
-        <v>399</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -5459,7 +5353,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5468,51 +5362,51 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="K51" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41060</v>
       </c>
-      <c r="B52" t="n">
-        <v>125623</v>
-      </c>
-      <c r="C52" t="s">
-        <v>405</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
@@ -5520,7 +5414,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5529,51 +5423,53 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="K52" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
-      </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41060</v>
       </c>
-      <c r="B53" t="n">
-        <v>35225</v>
-      </c>
-      <c r="C53" t="s">
-        <v>412</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
@@ -5581,7 +5477,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5590,41 +5486,35 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="J53" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>3</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5632,7 +5522,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54">
@@ -5648,7 +5538,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5657,38 +5547,32 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="K54" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="L54" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="O54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>4</v>
       </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>4</v>
@@ -5699,7 +5583,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55">
@@ -5715,7 +5599,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5724,65 +5608,47 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="J55" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="K55" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>431</v>
-      </c>
-      <c r="X55" t="s">
-        <v>432</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41060</v>
       </c>
-      <c r="B56" t="n">
-        <v>125624</v>
-      </c>
-      <c r="C56" t="s">
-        <v>434</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
@@ -5790,7 +5656,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5799,22 +5665,22 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s">
         <v>52</v>
@@ -5822,32 +5688,32 @@
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="X56" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="Y56" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41060</v>
       </c>
-      <c r="B57" t="n">
-        <v>125625</v>
-      </c>
-      <c r="C57" t="s">
-        <v>444</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
@@ -5855,7 +5721,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5864,34 +5730,34 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s">
+        <v>95</v>
+      </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>5</v>
@@ -5900,25 +5766,21 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="X57" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="Y57" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41060</v>
       </c>
-      <c r="B58" t="n">
-        <v>64746</v>
-      </c>
-      <c r="C58" t="s">
-        <v>453</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
@@ -5926,7 +5788,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5935,55 +5797,53 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="J58" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="K58" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="O58" t="s">
         <v>52</v>
       </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
       <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>460</v>
-      </c>
-      <c r="X58" t="s">
-        <v>461</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41060</v>
       </c>
-      <c r="B59" t="n">
-        <v>125626</v>
-      </c>
-      <c r="C59" t="s">
-        <v>463</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
@@ -5991,7 +5851,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -6000,25 +5860,25 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="J59" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6029,26 +5889,18 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>460</v>
-      </c>
-      <c r="X59" t="s">
-        <v>461</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41060</v>
       </c>
-      <c r="B60" t="n">
-        <v>31162</v>
-      </c>
-      <c r="C60" t="s">
-        <v>470</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
@@ -6056,7 +5908,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -6065,38 +5917,34 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="J60" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="K60" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
         <v>5</v>
       </c>
       <c r="R60" t="n">
         <v>5</v>
       </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
         <v>5</v>
@@ -6104,26 +5952,18 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>477</v>
-      </c>
-      <c r="X60" t="s">
-        <v>478</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>479</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41060</v>
       </c>
-      <c r="B61" t="n">
-        <v>125627</v>
-      </c>
-      <c r="C61" t="s">
-        <v>480</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
@@ -6131,7 +5971,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6140,37 +5980,37 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="O61" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6179,22 +6019,22 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>416</v>
+      </c>
+      <c r="X61" t="s">
+        <v>417</v>
+      </c>
       <c r="Y61" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41060</v>
       </c>
-      <c r="B62" t="n">
-        <v>4349</v>
-      </c>
-      <c r="C62" t="s">
-        <v>487</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
@@ -6202,7 +6042,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -6211,61 +6051,47 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="J62" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
       <c r="K62" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="O62" t="s">
-        <v>82</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41060</v>
       </c>
-      <c r="B63" t="n">
-        <v>125628</v>
-      </c>
-      <c r="C63" t="s">
-        <v>494</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
@@ -6273,7 +6099,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6282,61 +6108,47 @@
         <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="J63" t="s">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="K63" t="s">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="L63" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="O63" t="s">
-        <v>166</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41060</v>
       </c>
-      <c r="B64" t="n">
-        <v>125629</v>
-      </c>
-      <c r="C64" t="s">
-        <v>501</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
@@ -6344,7 +6156,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -6353,61 +6165,47 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="J64" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="K64" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>500</v>
+        <v>435</v>
       </c>
       <c r="O64" t="s">
         <v>52</v>
       </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>4</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41060</v>
       </c>
-      <c r="B65" t="n">
-        <v>125630</v>
-      </c>
-      <c r="C65" t="s">
-        <v>507</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
@@ -6415,7 +6213,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="G65" t="s">
         <v>45</v>
@@ -6424,37 +6222,41 @@
         <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
       <c r="J65" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="K65" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
+      <c r="N65" t="s">
+        <v>441</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6462,19 +6264,15 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41060</v>
       </c>
-      <c r="B66" t="n">
-        <v>125631</v>
-      </c>
-      <c r="C66" t="s">
-        <v>514</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
@@ -6482,7 +6280,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -6491,34 +6289,34 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="J66" t="s">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="K66" t="s">
-        <v>518</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
       <c r="O66" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -6533,19 +6331,15 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>519</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41060</v>
       </c>
-      <c r="B67" t="n">
-        <v>125632</v>
-      </c>
-      <c r="C67" t="s">
-        <v>521</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
@@ -6553,7 +6347,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="G67" t="s">
         <v>45</v>
@@ -6562,51 +6356,61 @@
         <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="J67" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="K67" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s">
-        <v>526</v>
+        <v>453</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
       <c r="O67" t="s">
         <v>52</v>
       </c>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>454</v>
+      </c>
+      <c r="X67" t="s">
+        <v>455</v>
+      </c>
       <c r="Y67" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41060</v>
       </c>
-      <c r="B68" t="n">
-        <v>125633</v>
-      </c>
-      <c r="C68" t="s">
-        <v>527</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
@@ -6614,7 +6418,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -6623,61 +6427,51 @@
         <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="J68" t="s">
-        <v>530</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s">
-        <v>102</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>463</v>
+      </c>
+      <c r="X68" t="s">
+        <v>464</v>
+      </c>
       <c r="Y68" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41060</v>
       </c>
-      <c r="B69" t="n">
-        <v>92219</v>
-      </c>
-      <c r="C69" t="s">
-        <v>534</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
@@ -6685,7 +6479,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6694,61 +6488,57 @@
         <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="J69" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="K69" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="L69" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
-      </c>
-      <c r="N69" t="s">
-        <v>540</v>
-      </c>
-      <c r="O69" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>471</v>
+      </c>
+      <c r="X69" t="s">
+        <v>472</v>
+      </c>
       <c r="Y69" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41060</v>
       </c>
-      <c r="B70" t="n">
-        <v>125634</v>
-      </c>
-      <c r="C70" t="s">
-        <v>542</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
@@ -6756,7 +6546,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="G70" t="s">
         <v>45</v>
@@ -6765,61 +6555,51 @@
         <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="J70" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K70" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="L70" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>540</v>
+        <v>479</v>
       </c>
       <c r="O70" t="s">
-        <v>102</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>4</v>
-      </c>
-      <c r="R70" t="n">
-        <v>4</v>
-      </c>
-      <c r="S70" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>4</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>480</v>
+      </c>
+      <c r="X70" t="s">
+        <v>481</v>
+      </c>
       <c r="Y70" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41060</v>
       </c>
-      <c r="B71" t="n">
-        <v>125635</v>
-      </c>
-      <c r="C71" t="s">
-        <v>549</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
@@ -6827,7 +6607,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="G71" t="s">
         <v>45</v>
@@ -6836,61 +6616,51 @@
         <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="J71" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="K71" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="L71" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="O71" t="s">
         <v>52</v>
       </c>
-      <c r="P71" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>5</v>
-      </c>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>5</v>
-      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="n">
-        <v>5</v>
-      </c>
+      <c r="U71" t="s"/>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>480</v>
+      </c>
+      <c r="X71" t="s">
+        <v>481</v>
+      </c>
       <c r="Y71" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41060</v>
       </c>
-      <c r="B72" t="n">
-        <v>125636</v>
-      </c>
-      <c r="C72" t="s">
-        <v>556</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
@@ -6898,7 +6668,7 @@
         <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="G72" t="s">
         <v>45</v>
@@ -6907,31 +6677,35 @@
         <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="J72" t="s">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="K72" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="L72" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
       </c>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
       <c r="S72" t="n">
         <v>5</v>
       </c>
@@ -6942,22 +6716,22 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>495</v>
+      </c>
+      <c r="X72" t="s">
+        <v>496</v>
+      </c>
       <c r="Y72" t="s">
-        <v>561</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41060</v>
       </c>
-      <c r="B73" t="n">
-        <v>125637</v>
-      </c>
-      <c r="C73" t="s">
-        <v>563</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
@@ -6965,7 +6739,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6974,37 +6748,37 @@
         <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="J73" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="K73" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="L73" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
       <c r="O73" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
@@ -7016,19 +6790,15 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41060</v>
       </c>
-      <c r="B74" t="n">
-        <v>125638</v>
-      </c>
-      <c r="C74" t="s">
-        <v>570</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
@@ -7036,7 +6806,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="G74" t="s">
         <v>45</v>
@@ -7045,33 +6815,37 @@
         <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="J74" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="K74" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="L74" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
-      </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>509</v>
+      </c>
+      <c r="O74" t="s">
+        <v>95</v>
+      </c>
       <c r="P74" t="n">
         <v>5</v>
       </c>
       <c r="Q74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
@@ -7083,19 +6857,15 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41060</v>
       </c>
-      <c r="B75" t="n">
-        <v>125639</v>
-      </c>
-      <c r="C75" t="s">
-        <v>576</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
@@ -7103,7 +6873,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7112,37 +6882,41 @@
         <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="J75" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
-      </c>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>515</v>
+      </c>
+      <c r="O75" t="s">
+        <v>197</v>
+      </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S75" t="n">
         <v>5</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -7150,19 +6924,15 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41060</v>
       </c>
-      <c r="B76" t="n">
-        <v>125640</v>
-      </c>
-      <c r="C76" t="s">
-        <v>582</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
@@ -7170,7 +6940,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="G76" t="s">
         <v>45</v>
@@ -7179,41 +6949,41 @@
         <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="J76" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
       <c r="K76" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="L76" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>588</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s">
         <v>52</v>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -7221,7 +6991,1053 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>521</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>522</v>
+      </c>
+      <c r="J77" t="s">
+        <v>523</v>
+      </c>
+      <c r="K77" t="s">
+        <v>524</v>
+      </c>
+      <c r="L77" t="s">
+        <v>525</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>527</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>528</v>
+      </c>
+      <c r="J78" t="s">
+        <v>529</v>
+      </c>
+      <c r="K78" t="s">
+        <v>530</v>
+      </c>
+      <c r="L78" t="s">
+        <v>531</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>532</v>
+      </c>
+      <c r="O78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>533</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>534</v>
+      </c>
+      <c r="J79" t="s">
+        <v>535</v>
+      </c>
+      <c r="K79" t="s">
+        <v>536</v>
+      </c>
+      <c r="L79" t="s">
+        <v>537</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>532</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>539</v>
+      </c>
+      <c r="J80" t="s">
+        <v>540</v>
+      </c>
+      <c r="K80" t="s">
+        <v>541</v>
+      </c>
+      <c r="L80" t="s">
+        <v>542</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>543</v>
+      </c>
+      <c r="O80" t="s">
+        <v>113</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>545</v>
+      </c>
+      <c r="J81" t="s">
+        <v>546</v>
+      </c>
+      <c r="K81" t="s">
+        <v>547</v>
+      </c>
+      <c r="L81" t="s">
+        <v>548</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>549</v>
+      </c>
+      <c r="O81" t="s">
+        <v>95</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>551</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>552</v>
+      </c>
+      <c r="J82" t="s">
+        <v>553</v>
+      </c>
+      <c r="K82" t="s">
+        <v>554</v>
+      </c>
+      <c r="L82" t="s">
+        <v>555</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>549</v>
+      </c>
+      <c r="O82" t="s">
+        <v>113</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>557</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>558</v>
+      </c>
+      <c r="J83" t="s">
+        <v>559</v>
+      </c>
+      <c r="K83" t="s">
+        <v>560</v>
+      </c>
+      <c r="L83" t="s">
+        <v>561</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>562</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>563</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>564</v>
+      </c>
+      <c r="J84" t="s">
+        <v>565</v>
+      </c>
+      <c r="K84" t="s">
+        <v>566</v>
+      </c>
+      <c r="L84" t="s">
+        <v>567</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>568</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>569</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>570</v>
+      </c>
+      <c r="J85" t="s">
+        <v>571</v>
+      </c>
+      <c r="K85" t="s">
+        <v>572</v>
+      </c>
+      <c r="L85" t="s">
+        <v>573</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>574</v>
+      </c>
+      <c r="O85" t="s">
+        <v>95</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>575</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>576</v>
+      </c>
+      <c r="J86" t="s">
+        <v>577</v>
+      </c>
+      <c r="K86" t="s">
+        <v>578</v>
+      </c>
+      <c r="L86" t="s">
+        <v>579</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>580</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>581</v>
+      </c>
+      <c r="J87" t="s">
+        <v>582</v>
+      </c>
+      <c r="K87" t="s">
+        <v>583</v>
+      </c>
+      <c r="L87" t="s">
+        <v>584</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>585</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>586</v>
+      </c>
+      <c r="J88" t="s">
         <v>587</v>
+      </c>
+      <c r="K88" t="s">
+        <v>588</v>
+      </c>
+      <c r="L88" t="s">
+        <v>589</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>590</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>591</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>592</v>
+      </c>
+      <c r="J89" t="s">
+        <v>593</v>
+      </c>
+      <c r="K89" t="s">
+        <v>594</v>
+      </c>
+      <c r="L89" t="s">
+        <v>595</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>596</v>
+      </c>
+      <c r="O89" t="s">
+        <v>113</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>598</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>599</v>
+      </c>
+      <c r="J90" t="s">
+        <v>600</v>
+      </c>
+      <c r="K90" t="s">
+        <v>601</v>
+      </c>
+      <c r="L90" t="s">
+        <v>602</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>603</v>
+      </c>
+      <c r="O90" t="s">
+        <v>113</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>605</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>606</v>
+      </c>
+      <c r="J91" t="s">
+        <v>607</v>
+      </c>
+      <c r="K91" t="s">
+        <v>608</v>
+      </c>
+      <c r="L91" t="s">
+        <v>609</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>610</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>611</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>612</v>
+      </c>
+      <c r="J92" t="s">
+        <v>613</v>
+      </c>
+      <c r="K92" t="s">
+        <v>614</v>
+      </c>
+      <c r="L92" t="s">
+        <v>615</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>610</v>
+      </c>
+      <c r="O92" t="s">
+        <v>197</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
